--- a/TS Jatai Ghanam Project/Stas table for TS 4.1 TO 4.7.xlsx
+++ b/TS Jatai Ghanam Project/Stas table for TS 4.1 TO 4.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Ghanam Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C1059-6A75-4030-B10A-0A47A1E605AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3FB6A9-E1DF-4574-BCE2-5CD247622D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="15" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="4.4" sheetId="18" r:id="rId4"/>
     <sheet name="4.5" sheetId="19" r:id="rId5"/>
     <sheet name="4.6" sheetId="20" r:id="rId6"/>
-    <sheet name="total 4.1 to 4.7" sheetId="7" r:id="rId7"/>
+    <sheet name="4.7" sheetId="21" r:id="rId7"/>
+    <sheet name="total 4.1 to 4.7" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="335">
   <si>
     <t>Panchaati Ref</t>
   </si>
@@ -1247,69 +1248,6 @@
     <t xml:space="preserve">C¥r | Zûx | D¦ª¥R |   </t>
   </si>
   <si>
-    <r>
-      <t>GZy = (B+CZy) |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="BRH Malayalam"/>
-        <family val="4"/>
-      </rPr>
-      <t>D¥eZy = (De+CZy)  ¥öeZy = (öe+CZy) |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DexjpJ = Dexjp CZõ¡e - BjpJ |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="BRH Malayalam"/>
-        <family val="4"/>
-      </rPr>
-      <t xml:space="preserve">gxt¡hõxI=gxt¡hõxiyZy gxt¡-hõxI </t>
-    </r>
-  </si>
-  <si>
     <t>¥Z = (¥Z CZy) | ¥Zû = (¥Zû CZy) | P±¡rz = (P±¡rz CZy) | py¥rêx = py¥rêx CZy |</t>
   </si>
   <si>
@@ -1397,9 +1335,6 @@
     <t>Prasnam No.4.6</t>
   </si>
   <si>
-    <t>Prasnam No.4.1 to 4.6</t>
-  </si>
-  <si>
     <t>4.1.1.1 :</t>
   </si>
   <si>
@@ -2127,13 +2062,193 @@
   </si>
   <si>
     <t>4.6.9.4 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.1.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.1.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.2.1 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.2.2 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.3.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.3.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.4.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.4.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.5.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.5.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.6.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.6.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.7.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.7.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.8.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.9.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.10.1 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.10.2 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.11.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.11.2 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.12.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.12.2 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.12.3 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.3 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.4 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.5 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.14.1 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.14.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.14.3 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.14.4 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.3 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.4 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.5 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.6 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.7 :       </t>
+  </si>
+  <si>
+    <r>
+      <t>GZy = (B+CZy) |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BRH Malayalam"/>
+        <family val="4"/>
+      </rPr>
+      <t>D¥eZy = (De+CZy)  ¥öeZy = (öe+CZy) |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DexjpJ = Dexjp CZõ¡e - BjpJ |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BRH Malayalam"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve">gxt¡hõxI=gxt¡hõxiyZy gxt¡-hõxI </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2193,35 +2308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="BRH Malayalam"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="BRH Malayalam"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="BRH Malayalam"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Latha"/>
@@ -2240,6 +2326,13 @@
       <color rgb="FF000000"/>
       <name val="Latha"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="BRH Malayalam"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2345,7 +2438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -2398,35 +2491,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2442,6 +2519,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2783,7 +2880,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
@@ -2818,11 +2915,11 @@
       <c r="L2" s="3">
         <v>53</v>
       </c>
-      <c r="M2" s="34"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -2857,11 +2954,11 @@
       <c r="L3" s="3">
         <v>53</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3">
         <v>11</v>
@@ -2896,11 +2993,11 @@
       <c r="L4" s="3">
         <v>58</v>
       </c>
-      <c r="M4" s="34"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -2935,11 +3032,11 @@
       <c r="L5" s="3">
         <v>57</v>
       </c>
-      <c r="M5" s="34"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3">
         <v>8</v>
@@ -2974,11 +3071,11 @@
       <c r="L6" s="3">
         <v>55</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3">
         <v>7</v>
@@ -3013,11 +3110,11 @@
       <c r="L7" s="3">
         <v>56</v>
       </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -3052,11 +3149,11 @@
       <c r="L8" s="3">
         <v>57</v>
       </c>
-      <c r="M8" s="34"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3">
         <v>11</v>
@@ -3091,11 +3188,11 @@
       <c r="L9" s="3">
         <v>58</v>
       </c>
-      <c r="M9" s="34"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3">
         <v>12</v>
@@ -3130,11 +3227,11 @@
       <c r="L10" s="3">
         <v>81</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3">
         <v>8</v>
@@ -3169,11 +3266,11 @@
       <c r="L11" s="3">
         <v>57</v>
       </c>
-      <c r="M11" s="34"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -3208,11 +3305,11 @@
       <c r="L12" s="3">
         <v>56</v>
       </c>
-      <c r="M12" s="34"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -3247,11 +3344,11 @@
       <c r="L13" s="3">
         <v>58</v>
       </c>
-      <c r="M13" s="34"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -3286,11 +3383,11 @@
       <c r="L14" s="3">
         <v>29</v>
       </c>
-      <c r="M14" s="34"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3">
         <v>8</v>
@@ -3325,11 +3422,11 @@
       <c r="L15" s="3">
         <v>56</v>
       </c>
-      <c r="M15" s="34"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -3364,11 +3461,11 @@
       <c r="L16" s="3">
         <v>56</v>
       </c>
-      <c r="M16" s="34"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -3403,11 +3500,11 @@
       <c r="L17" s="3">
         <v>53</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
         <v>7</v>
@@ -3442,11 +3539,11 @@
       <c r="L18" s="3">
         <v>42</v>
       </c>
-      <c r="M18" s="34"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
         <v>5</v>
@@ -3481,11 +3578,11 @@
       <c r="L19" s="3">
         <v>54</v>
       </c>
-      <c r="M19" s="34"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
         <v>9</v>
@@ -3520,11 +3617,11 @@
       <c r="L20" s="3">
         <v>57</v>
       </c>
-      <c r="M20" s="34"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -3559,11 +3656,11 @@
       <c r="L21" s="3">
         <v>55</v>
       </c>
-      <c r="M21" s="34"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -3598,11 +3695,11 @@
       <c r="L22" s="3">
         <v>59</v>
       </c>
-      <c r="M22" s="34"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -3637,11 +3734,11 @@
       <c r="L23" s="3">
         <v>53</v>
       </c>
-      <c r="M23" s="34"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
@@ -3676,11 +3773,11 @@
       <c r="L24" s="3">
         <v>58</v>
       </c>
-      <c r="M24" s="34"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
@@ -3715,11 +3812,11 @@
       <c r="L25" s="3">
         <v>73</v>
       </c>
-      <c r="M25" s="34"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -3754,11 +3851,11 @@
       <c r="L26" s="3">
         <v>53</v>
       </c>
-      <c r="M26" s="34"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
         <v>13</v>
@@ -3793,11 +3890,11 @@
       <c r="L27" s="3">
         <v>61</v>
       </c>
-      <c r="M27" s="34"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
         <v>10</v>
@@ -3832,11 +3929,11 @@
       <c r="L28" s="3">
         <v>60</v>
       </c>
-      <c r="M28" s="34"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
@@ -3871,11 +3968,11 @@
       <c r="L29" s="3">
         <v>37</v>
       </c>
-      <c r="M29" s="34"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
@@ -3910,11 +4007,11 @@
       <c r="L30" s="3">
         <v>56</v>
       </c>
-      <c r="M30" s="34"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -3949,11 +4046,11 @@
       <c r="L31" s="3">
         <v>55</v>
       </c>
-      <c r="M31" s="34"/>
+      <c r="M31" s="28"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -3988,11 +4085,11 @@
       <c r="L32" s="3">
         <v>52</v>
       </c>
-      <c r="M32" s="34"/>
+      <c r="M32" s="28"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3">
         <v>11</v>
@@ -4027,11 +4124,11 @@
       <c r="L33" s="3">
         <v>61</v>
       </c>
-      <c r="M33" s="34"/>
+      <c r="M33" s="28"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3">
         <v>5</v>
@@ -4066,11 +4163,11 @@
       <c r="L34" s="3">
         <v>59</v>
       </c>
-      <c r="M34" s="34"/>
+      <c r="M34" s="28"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -4105,11 +4202,11 @@
       <c r="L35" s="3">
         <v>35</v>
       </c>
-      <c r="M35" s="34"/>
+      <c r="M35" s="28"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3">
         <v>8</v>
@@ -4144,11 +4241,11 @@
       <c r="L36" s="3">
         <v>58</v>
       </c>
-      <c r="M36" s="34"/>
+      <c r="M36" s="28"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -4183,11 +4280,11 @@
       <c r="L37" s="3">
         <v>54</v>
       </c>
-      <c r="M37" s="34"/>
+      <c r="M37" s="28"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3">
         <v>6</v>
@@ -4222,11 +4319,11 @@
       <c r="L38" s="3">
         <v>77</v>
       </c>
-      <c r="M38" s="34"/>
+      <c r="M38" s="28"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -4261,11 +4358,11 @@
       <c r="L39" s="3">
         <v>54</v>
       </c>
-      <c r="M39" s="34"/>
+      <c r="M39" s="28"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B40" s="3">
         <v>8</v>
@@ -4300,11 +4397,11 @@
       <c r="L40" s="3">
         <v>57</v>
       </c>
-      <c r="M40" s="34"/>
+      <c r="M40" s="28"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" s="3">
         <v>6</v>
@@ -4339,11 +4436,11 @@
       <c r="L41" s="3">
         <v>56</v>
       </c>
-      <c r="M41" s="34"/>
+      <c r="M41" s="28"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B42" s="3">
         <v>7</v>
@@ -4378,11 +4475,11 @@
       <c r="L42" s="3">
         <v>57</v>
       </c>
-      <c r="M42" s="34"/>
+      <c r="M42" s="28"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B43" s="3">
         <v>5</v>
@@ -4417,11 +4514,11 @@
       <c r="L43" s="3">
         <v>43</v>
       </c>
-      <c r="M43" s="34"/>
+      <c r="M43" s="28"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B44" s="3">
         <v>5</v>
@@ -4456,11 +4553,11 @@
       <c r="L44" s="3">
         <v>53</v>
       </c>
-      <c r="M44" s="34"/>
+      <c r="M44" s="28"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
@@ -4495,11 +4592,11 @@
       <c r="L45" s="3">
         <v>54</v>
       </c>
-      <c r="M45" s="34"/>
+      <c r="M45" s="28"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B46" s="3">
         <v>5</v>
@@ -4534,11 +4631,11 @@
       <c r="L46" s="3">
         <v>57</v>
       </c>
-      <c r="M46" s="34"/>
+      <c r="M46" s="28"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
@@ -4573,62 +4670,62 @@
       <c r="L47" s="3">
         <v>64</v>
       </c>
-      <c r="M47" s="34"/>
+      <c r="M47" s="28"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="32">
+      <c r="A48" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="26">
         <f>SUM(B2:B47)</f>
         <v>290</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="26">
         <f t="shared" ref="C48:L48" si="0">SUM(C2:C47)</f>
         <v>52</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="26">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="26">
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="26">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="H48" s="32">
+      <c r="H48" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J48" s="32">
+      <c r="J48" s="26">
         <f t="shared" si="0"/>
         <v>1751</v>
       </c>
-      <c r="K48" s="32">
+      <c r="K48" s="26">
         <f t="shared" si="0"/>
         <v>2293</v>
       </c>
-      <c r="L48" s="32">
+      <c r="L48" s="26">
         <f t="shared" si="0"/>
         <v>2557</v>
       </c>
-      <c r="M48" s="34"/>
+      <c r="M48" s="28"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
       <c r="E49" t="s">
         <v>12</v>
       </c>
@@ -4640,8 +4737,8 @@
         <f>B48-C48</f>
         <v>238</v>
       </c>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
@@ -4699,7 +4796,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F55">
         <f>K48-F54</f>
@@ -4795,7 +4892,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3">
         <v>5</v>
@@ -4833,7 +4930,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3">
         <v>6</v>
@@ -4871,7 +4968,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -4909,7 +5006,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -4947,7 +5044,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3">
         <v>15</v>
@@ -4985,7 +5082,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
@@ -5023,7 +5120,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -5061,7 +5158,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -5099,7 +5196,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -5137,7 +5234,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3">
         <v>13</v>
@@ -5175,7 +5272,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -5213,7 +5310,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
@@ -5251,7 +5348,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
@@ -5289,7 +5386,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -5327,7 +5424,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
@@ -5365,7 +5462,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3">
         <v>10</v>
@@ -5403,7 +5500,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -5441,7 +5538,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B19" s="3">
         <v>8</v>
@@ -5479,7 +5576,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B20" s="3">
         <v>8</v>
@@ -5517,7 +5614,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3">
         <v>8</v>
@@ -5555,7 +5652,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3">
         <v>6</v>
@@ -5593,7 +5690,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3">
         <v>7</v>
@@ -5631,7 +5728,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="3">
         <v>14</v>
@@ -5669,7 +5766,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3">
         <v>6</v>
@@ -5707,7 +5804,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
@@ -5745,7 +5842,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -5783,7 +5880,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B28" s="3">
         <v>10</v>
@@ -5821,7 +5918,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B29" s="3">
         <v>10</v>
@@ -5859,7 +5956,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -5897,7 +5994,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -5935,7 +6032,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B32" s="3">
         <v>15</v>
@@ -5973,7 +6070,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
@@ -6011,7 +6108,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
@@ -6049,7 +6146,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
@@ -6087,7 +6184,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -6125,7 +6222,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B37" s="3">
         <v>10</v>
@@ -6163,7 +6260,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B38" s="3">
         <v>7</v>
@@ -6201,7 +6298,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -6239,7 +6336,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B40" s="3">
         <v>5</v>
@@ -6277,7 +6374,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
@@ -6315,7 +6412,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
@@ -6353,7 +6450,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B43" s="3">
         <v>7</v>
@@ -6391,7 +6488,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44" s="3">
         <v>9</v>
@@ -6429,7 +6526,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B45" s="3">
         <v>6</v>
@@ -6467,7 +6564,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
@@ -6505,7 +6602,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B47" s="3">
         <v>6</v>
@@ -6543,7 +6640,7 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B48" s="3">
         <v>10</v>
@@ -6581,7 +6678,7 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B49" s="3">
         <v>8</v>
@@ -6618,56 +6715,56 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
+      <c r="A50" s="29">
         <v>48</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="29">
         <f>SUM(B2:B49)</f>
         <v>317</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="29">
         <f t="shared" ref="C50:L50" si="0">SUM(C2:C49)</f>
         <v>65</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F50" s="35">
+      <c r="F50" s="29">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="29">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="29">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J50" s="35">
+      <c r="J50" s="29">
         <f t="shared" si="0"/>
         <v>1921</v>
       </c>
-      <c r="K50" s="35">
+      <c r="K50" s="29">
         <f t="shared" si="0"/>
         <v>2498</v>
       </c>
-      <c r="L50" s="35">
+      <c r="L50" s="29">
         <f t="shared" si="0"/>
         <v>2768</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D51" s="34"/>
+      <c r="D51" s="28"/>
       <c r="E51" t="s">
         <v>12</v>
       </c>
@@ -6679,7 +6776,7 @@
         <f>B50-C50</f>
         <v>252</v>
       </c>
-      <c r="K51" s="34"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
@@ -6737,7 +6834,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F57">
         <f>K50-F56</f>
@@ -6834,7 +6931,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -6872,7 +6969,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3">
         <v>17</v>
@@ -6910,7 +7007,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3">
         <v>14</v>
@@ -6948,7 +7045,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
@@ -6986,7 +7083,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3">
         <v>9</v>
@@ -7024,7 +7121,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
@@ -7062,7 +7159,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" s="3">
         <v>9</v>
@@ -7100,7 +7197,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3">
         <v>9</v>
@@ -7138,7 +7235,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3">
         <v>18</v>
@@ -7176,7 +7273,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B11" s="3">
         <v>16</v>
@@ -7214,7 +7311,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
@@ -7252,7 +7349,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -7290,7 +7387,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -7328,7 +7425,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -7366,7 +7463,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B16" s="3">
         <v>23</v>
@@ -7404,7 +7501,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B17" s="3">
         <v>11</v>
@@ -7442,7 +7539,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B18" s="3">
         <v>13</v>
@@ -7480,7 +7577,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -7518,7 +7615,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -7556,7 +7653,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B21" s="3">
         <v>9</v>
@@ -7594,7 +7691,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -7632,7 +7729,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3">
         <v>8</v>
@@ -7670,7 +7767,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
@@ -7708,7 +7805,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B25" s="3">
         <v>9</v>
@@ -7746,7 +7843,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
@@ -7784,7 +7881,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
@@ -7822,7 +7919,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B28" s="3">
         <v>10</v>
@@ -7860,7 +7957,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B29" s="3">
         <v>7</v>
@@ -7898,7 +7995,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" s="3">
         <v>7</v>
@@ -7936,7 +8033,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" s="3">
         <v>8</v>
@@ -7974,7 +8071,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B32" s="3">
         <v>8</v>
@@ -8012,7 +8109,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B33" s="3">
         <v>7</v>
@@ -8050,7 +8147,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B34" s="3">
         <v>11</v>
@@ -8088,7 +8185,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B35" s="3">
         <v>7</v>
@@ -8126,7 +8223,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
@@ -8164,7 +8261,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B37" s="3">
         <v>8</v>
@@ -8201,40 +8298,40 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="35">
+      <c r="A38" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="29">
         <v>356</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="29">
         <v>29</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="29">
         <v>25</v>
       </c>
-      <c r="E38" s="35">
-        <v>1</v>
-      </c>
-      <c r="F38" s="35">
+      <c r="E38" s="29">
+        <v>1</v>
+      </c>
+      <c r="F38" s="29">
         <v>16</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="29">
         <v>67</v>
       </c>
-      <c r="H38" s="35">
-        <v>0</v>
-      </c>
-      <c r="I38" s="35">
+      <c r="H38" s="29">
+        <v>0</v>
+      </c>
+      <c r="I38" s="29">
         <v>2</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="29">
         <v>1377</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="29">
         <v>1844</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="29">
         <v>2195</v>
       </c>
     </row>
@@ -8307,7 +8404,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45">
         <f>K38-F44</f>
@@ -8404,7 +8501,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -8442,7 +8539,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
@@ -8480,7 +8577,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="3">
         <v>14</v>
@@ -8518,7 +8615,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" s="3">
         <v>11</v>
@@ -8556,7 +8653,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B6" s="3">
         <v>11</v>
@@ -8594,7 +8691,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B7" s="3">
         <v>9</v>
@@ -8632,7 +8729,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B8" s="3">
         <v>20</v>
@@ -8670,7 +8767,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B9" s="3">
         <v>15</v>
@@ -8708,7 +8805,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -8746,7 +8843,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
@@ -8784,7 +8881,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
@@ -8822,7 +8919,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -8860,7 +8957,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B14" s="3">
         <v>6</v>
@@ -8898,7 +8995,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
@@ -8936,7 +9033,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
@@ -8974,7 +9071,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -9012,7 +9109,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="3">
         <v>10</v>
@@ -9050,7 +9147,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3">
         <v>11</v>
@@ -9088,7 +9185,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
@@ -9126,7 +9223,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21" s="3">
         <v>14</v>
@@ -9164,7 +9261,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" s="3">
         <v>12</v>
@@ -9202,7 +9299,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B23" s="3">
         <v>12</v>
@@ -9240,7 +9337,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -9278,7 +9375,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B25" s="3">
         <v>16</v>
@@ -9316,7 +9413,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B26" s="3">
         <v>35</v>
@@ -9354,7 +9451,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -9392,7 +9489,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -9430,7 +9527,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
@@ -9468,7 +9565,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -9506,7 +9603,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
@@ -9544,7 +9641,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -9582,7 +9679,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B33" s="3">
         <v>11</v>
@@ -9620,7 +9717,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B34" s="3">
         <v>10</v>
@@ -9658,7 +9755,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B35" s="3">
         <v>8</v>
@@ -9696,7 +9793,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B36" s="3">
         <v>14</v>
@@ -9734,7 +9831,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B37" s="3">
         <v>9</v>
@@ -9772,7 +9869,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B38" s="3">
         <v>11</v>
@@ -9809,56 +9906,56 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="31">
+      <c r="A39" s="25">
         <v>37</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="29">
         <f>SUM(B2:B38)</f>
         <v>356</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="29">
         <f t="shared" ref="C39:L39" si="0">SUM(C2:C38)</f>
         <v>17</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="29">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="29">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J39" s="35">
+      <c r="J39" s="29">
         <f t="shared" si="0"/>
         <v>1425</v>
       </c>
-      <c r="K39" s="35">
+      <c r="K39" s="29">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="L39" s="35">
+      <c r="L39" s="29">
         <f t="shared" si="0"/>
         <v>2248</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="28"/>
       <c r="E40" t="s">
         <v>12</v>
       </c>
@@ -9927,7 +10024,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46">
         <f>K39-F45</f>
@@ -10024,7 +10121,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2" s="3">
         <v>6</v>
@@ -10062,7 +10159,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -10100,7 +10197,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
@@ -10139,7 +10236,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3">
         <v>14</v>
@@ -10177,7 +10274,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3">
         <v>8</v>
@@ -10215,7 +10312,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -10253,7 +10350,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B8" s="3">
         <v>14</v>
@@ -10291,7 +10388,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
@@ -10329,7 +10426,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -10367,7 +10464,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B11" s="3">
         <v>12</v>
@@ -10405,7 +10502,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -10443,7 +10540,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -10481,7 +10578,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" s="3">
         <v>6</v>
@@ -10519,7 +10616,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -10557,7 +10654,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -10595,7 +10692,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -10633,7 +10730,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B18" s="3">
         <v>9</v>
@@ -10671,7 +10768,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B19" s="3">
         <v>5</v>
@@ -10709,7 +10806,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
@@ -10747,7 +10844,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B21" s="3">
         <v>9</v>
@@ -10785,7 +10882,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -10823,7 +10920,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
@@ -10861,7 +10958,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -10899,7 +10996,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
@@ -10937,7 +11034,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -10975,7 +11072,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B27" s="3">
         <v>13</v>
@@ -11013,7 +11110,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -11050,50 +11147,50 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+      <c r="A29" s="29">
         <v>27</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="29">
         <f t="shared" ref="B29:L29" si="0">SUM(B2:B28)</f>
         <v>197</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="29">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="29">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="29">
         <f t="shared" si="0"/>
         <v>975</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="29">
         <f t="shared" si="0"/>
         <v>1234</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="29">
         <f t="shared" si="0"/>
         <v>1417</v>
       </c>
@@ -11167,7 +11264,7 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36">
         <f>K29-F35</f>
@@ -11205,9 +11302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137B0B31-F3DB-4569-8830-B68D484C86ED}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11264,7 +11361,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -11302,7 +11399,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -11340,7 +11437,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
@@ -11378,7 +11475,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
@@ -11416,7 +11513,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" s="3">
         <v>11</v>
@@ -11454,7 +11551,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3">
         <v>9</v>
@@ -11492,7 +11589,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -11530,7 +11627,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -11568,7 +11665,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -11606,7 +11703,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B11" s="3">
         <v>8</v>
@@ -11644,7 +11741,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12" s="3">
         <v>8</v>
@@ -11682,7 +11779,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
@@ -11720,7 +11817,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
@@ -11758,7 +11855,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B15" s="3">
         <v>9</v>
@@ -11796,7 +11893,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -11834,7 +11931,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
@@ -11872,7 +11969,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B18" s="3">
         <v>15</v>
@@ -11910,7 +12007,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B19" s="3">
         <v>8</v>
@@ -11948,7 +12045,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B20" s="3">
         <v>6</v>
@@ -11986,7 +12083,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -12024,7 +12121,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -12062,7 +12159,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B23" s="3">
         <v>9</v>
@@ -12100,7 +12197,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
@@ -12138,7 +12235,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
@@ -12176,7 +12273,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
@@ -12214,7 +12311,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B27" s="3">
         <v>14</v>
@@ -12252,7 +12349,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
@@ -12290,7 +12387,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
@@ -12328,7 +12425,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B30" s="3">
         <v>16</v>
@@ -12366,7 +12463,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
@@ -12404,7 +12501,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B32" s="3">
         <v>11</v>
@@ -12442,7 +12539,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
@@ -12480,7 +12577,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
@@ -12518,7 +12615,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -12556,7 +12653,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -12594,7 +12691,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -12632,7 +12729,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B38" s="3">
         <v>9</v>
@@ -12670,7 +12767,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
@@ -12708,7 +12805,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B40" s="3">
         <v>9</v>
@@ -12746,7 +12843,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B41" s="3">
         <v>13</v>
@@ -12784,7 +12881,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B42" s="3">
         <v>6</v>
@@ -12822,7 +12919,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B43" s="3">
         <v>7</v>
@@ -12860,7 +12957,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B44" s="3">
         <v>9</v>
@@ -12898,7 +12995,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B45" s="3">
         <v>7</v>
@@ -12936,7 +13033,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B46" s="3">
         <v>8</v>
@@ -12974,7 +13071,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B47" s="3">
         <v>10</v>
@@ -13011,50 +13108,50 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="35">
+      <c r="A48" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="29">
         <f>SUM(B2:B47)</f>
         <v>373</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="29">
         <f t="shared" ref="C48:L48" si="0">SUM(C2:C47)</f>
         <v>50</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="29">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="29">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="29">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J48" s="35">
+      <c r="J48" s="29">
         <f t="shared" si="0"/>
         <v>1718</v>
       </c>
-      <c r="K48" s="35">
+      <c r="K48" s="29">
         <f t="shared" si="0"/>
         <v>2331</v>
       </c>
-      <c r="L48" s="35">
+      <c r="L48" s="29">
         <f t="shared" si="0"/>
         <v>2676</v>
       </c>
@@ -13128,7 +13225,7 @@
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F55">
         <f>K48-F54</f>
@@ -13163,56 +13260,1753 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC166EC-5FE7-4C80-88BD-CCD03692F347}">
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>41</v>
+      </c>
+      <c r="K2" s="3">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>65</v>
+      </c>
+      <c r="K3" s="3">
+        <v>68</v>
+      </c>
+      <c r="L3" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>48</v>
+      </c>
+      <c r="K4" s="3">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>58</v>
+      </c>
+      <c r="K5" s="3">
+        <v>64</v>
+      </c>
+      <c r="L5" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3">
+        <v>58</v>
+      </c>
+      <c r="L7" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>61</v>
+      </c>
+      <c r="K9" s="3">
+        <v>64</v>
+      </c>
+      <c r="L9" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>46</v>
+      </c>
+      <c r="K11" s="3">
+        <v>48</v>
+      </c>
+      <c r="L11" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>50</v>
+      </c>
+      <c r="K12" s="3">
+        <v>50</v>
+      </c>
+      <c r="L12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>69</v>
+      </c>
+      <c r="K13" s="3">
+        <v>71</v>
+      </c>
+      <c r="L13" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>42</v>
+      </c>
+      <c r="K14" s="3">
+        <v>50</v>
+      </c>
+      <c r="L14" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>27</v>
+      </c>
+      <c r="K15" s="3">
+        <v>34</v>
+      </c>
+      <c r="L15" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>56</v>
+      </c>
+      <c r="K16" s="3">
+        <v>66</v>
+      </c>
+      <c r="L16" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>63</v>
+      </c>
+      <c r="K17" s="3">
+        <v>68</v>
+      </c>
+      <c r="L17" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41</v>
+      </c>
+      <c r="K18" s="3">
+        <v>50</v>
+      </c>
+      <c r="L18" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>36</v>
+      </c>
+      <c r="K19" s="3">
+        <v>40</v>
+      </c>
+      <c r="L19" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>39</v>
+      </c>
+      <c r="K20" s="3">
+        <v>50</v>
+      </c>
+      <c r="L20" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>51</v>
+      </c>
+      <c r="K21" s="3">
+        <v>61</v>
+      </c>
+      <c r="L21" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>40</v>
+      </c>
+      <c r="K22" s="3">
+        <v>50</v>
+      </c>
+      <c r="L22" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>39</v>
+      </c>
+      <c r="K23" s="3">
+        <v>50</v>
+      </c>
+      <c r="L23" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="3">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>37</v>
+      </c>
+      <c r="K24" s="3">
+        <v>52</v>
+      </c>
+      <c r="L24" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>38</v>
+      </c>
+      <c r="K25" s="3">
+        <v>50</v>
+      </c>
+      <c r="L25" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>40</v>
+      </c>
+      <c r="K26" s="3">
+        <v>50</v>
+      </c>
+      <c r="L26" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>40</v>
+      </c>
+      <c r="K27" s="3">
+        <v>50</v>
+      </c>
+      <c r="L27" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>37</v>
+      </c>
+      <c r="K28" s="3">
+        <v>50</v>
+      </c>
+      <c r="L28" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>30</v>
+      </c>
+      <c r="K29" s="3">
+        <v>37</v>
+      </c>
+      <c r="L29" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>39</v>
+      </c>
+      <c r="K30" s="3">
+        <v>50</v>
+      </c>
+      <c r="L30" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>41</v>
+      </c>
+      <c r="K31" s="3">
+        <v>50</v>
+      </c>
+      <c r="L31" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="3">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>38</v>
+      </c>
+      <c r="K32" s="3">
+        <v>50</v>
+      </c>
+      <c r="L32" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>30</v>
+      </c>
+      <c r="K33" s="3">
+        <v>43</v>
+      </c>
+      <c r="L33" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="3">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>37</v>
+      </c>
+      <c r="K34" s="3">
+        <v>50</v>
+      </c>
+      <c r="L34" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>36</v>
+      </c>
+      <c r="K35" s="3">
+        <v>50</v>
+      </c>
+      <c r="L35" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>38</v>
+      </c>
+      <c r="K36" s="3">
+        <v>50</v>
+      </c>
+      <c r="L36" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>41</v>
+      </c>
+      <c r="K37" s="3">
+        <v>50</v>
+      </c>
+      <c r="L37" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>41</v>
+      </c>
+      <c r="K38" s="3">
+        <v>50</v>
+      </c>
+      <c r="L38" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>32</v>
+      </c>
+      <c r="K39" s="3">
+        <v>50</v>
+      </c>
+      <c r="L39" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3">
+        <v>29</v>
+      </c>
+      <c r="K40" s="3">
+        <v>34</v>
+      </c>
+      <c r="L40" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29">
+        <f>SUM(B2:B40)</f>
+        <v>206</v>
+      </c>
+      <c r="C41" s="29">
+        <f>SUM(C2:C40)</f>
+        <v>21</v>
+      </c>
+      <c r="D41" s="29">
+        <f>SUM(D2:D40)</f>
+        <v>21</v>
+      </c>
+      <c r="E41" s="29">
+        <f>SUM(E2:E40)</f>
+        <v>4</v>
+      </c>
+      <c r="F41" s="29">
+        <f>SUM(F2:F40)</f>
+        <v>114</v>
+      </c>
+      <c r="G41" s="29">
+        <f>SUM(G2:G40)</f>
+        <v>51</v>
+      </c>
+      <c r="H41" s="29">
+        <f>SUM(H2:H40)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="29">
+        <f>SUM(I2:I40)</f>
+        <v>10</v>
+      </c>
+      <c r="J41" s="29">
+        <f>SUM(J2:J40)</f>
+        <v>1692</v>
+      </c>
+      <c r="K41" s="29">
+        <f>SUM(K2:K40)</f>
+        <v>2008</v>
+      </c>
+      <c r="L41" s="29">
+        <f>SUM(L2:L40)</f>
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <f>G41</f>
+        <v>51</v>
+      </c>
+      <c r="J42">
+        <f>B41-C41</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <f>B41</f>
+        <v>206</v>
+      </c>
+      <c r="J43">
+        <f>D41-E41</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <f>F50</f>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46">
+        <f>SUM(J42:J45)</f>
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f>SUM(F42:F46)</f>
+        <v>278</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48">
+        <f>K41-F47</f>
+        <v>1730</v>
+      </c>
+      <c r="J48">
+        <f>J46-L41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f>F48+F47</f>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>F50-K41</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="30" customWidth="1"/>
+    <col min="9" max="11" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="30" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="102" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="102" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
@@ -13245,7 +15039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
@@ -13255,19 +15049,33 @@
       <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="E3" s="13">
+        <v>1824</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1982</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1396</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1463</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1011</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1782</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1730</v>
+      </c>
       <c r="L3" s="13">
-        <f>SUM(E3:I3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
+        <f>SUM(E3:K3)</f>
+        <v>11188</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
@@ -13277,19 +15085,33 @@
       <c r="D4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="E4" s="13">
+        <v>146</v>
+      </c>
+      <c r="F4" s="13">
+        <v>178</v>
+      </c>
+      <c r="G4" s="13">
+        <v>67</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45</v>
+      </c>
+      <c r="I4" s="13">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13">
+        <v>150</v>
+      </c>
+      <c r="K4" s="13">
+        <v>51</v>
+      </c>
       <c r="L4" s="13">
-        <f>SUM(E4:I4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="42.75" x14ac:dyDescent="0.25">
+        <f>SUM(E4:K4)</f>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
@@ -13299,19 +15121,33 @@
       <c r="D5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="E5" s="13">
+        <v>290</v>
+      </c>
+      <c r="F5" s="13">
+        <v>317</v>
+      </c>
+      <c r="G5" s="13">
+        <v>356</v>
+      </c>
+      <c r="H5" s="13">
+        <v>356</v>
+      </c>
+      <c r="I5" s="13">
+        <v>197</v>
+      </c>
+      <c r="J5" s="13">
+        <v>373</v>
+      </c>
+      <c r="K5" s="13">
+        <v>206</v>
+      </c>
       <c r="L5" s="13">
-        <f>SUM(E5:I5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="41.25" x14ac:dyDescent="0.25">
+        <f>SUM(E5:K5)</f>
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="55.5" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
@@ -13321,19 +15157,33 @@
       <c r="D6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="E6" s="13">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13">
+        <v>14</v>
+      </c>
+      <c r="G6" s="13">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13">
+        <v>18</v>
+      </c>
+      <c r="I6" s="13">
+        <v>5</v>
+      </c>
+      <c r="J6" s="13">
+        <v>18</v>
+      </c>
+      <c r="K6" s="13">
+        <v>9</v>
+      </c>
       <c r="L6" s="13">
-        <f>SUM(E6:I6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="42.75" x14ac:dyDescent="0.25">
+        <f>SUM(E6:K6)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
@@ -13343,76 +15193,113 @@
       <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="E7" s="13">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13">
+        <v>10</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>8</v>
+      </c>
+      <c r="K7" s="13">
+        <v>12</v>
+      </c>
       <c r="L7" s="13">
-        <f>SUM(E7:I7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <f>SUM(E7:K7)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="E8" s="17">
+        <f>SUM(E3:E7)</f>
+        <v>2293</v>
+      </c>
+      <c r="F8" s="17">
+        <f>SUM(F3:F7)</f>
+        <v>2498</v>
+      </c>
+      <c r="G8" s="17">
+        <f>SUM(G3:G7)</f>
+        <v>1844</v>
+      </c>
+      <c r="H8" s="17">
+        <f>SUM(H3:H7)</f>
+        <v>1887</v>
+      </c>
+      <c r="I8" s="17">
+        <f>SUM(I3:I7)</f>
+        <v>1234</v>
+      </c>
+      <c r="J8" s="17">
+        <f>SUM(J3:J7)</f>
+        <v>2331</v>
+      </c>
+      <c r="K8" s="17">
+        <f>SUM(K3:K7)</f>
+        <v>2008</v>
+      </c>
       <c r="L8" s="17">
         <f t="shared" ref="L8" si="0">SUM(L3:L7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="L9" s="33">
-        <f>SUM(E8:I8)-L8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14095</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E9" s="31"/>
+      <c r="L9" s="27">
+        <f>SUM(E8:K8)-L8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="L12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="102" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="102" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -13430,123 +15317,197 @@
       <c r="I13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="L13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="E14" s="13">
+        <v>1824</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1982</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1396</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1463</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1011</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1782</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1730</v>
+      </c>
       <c r="L14" s="13">
-        <f>SUM(E14:I14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="49.5" x14ac:dyDescent="0.35">
+        <f>SUM(E14:K14)</f>
+        <v>11188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="D15" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="13">
+        <v>146</v>
+      </c>
+      <c r="F15" s="13">
+        <v>178</v>
+      </c>
+      <c r="G15" s="13">
+        <v>67</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45</v>
+      </c>
+      <c r="I15" s="13">
+        <v>21</v>
+      </c>
+      <c r="J15" s="13">
+        <v>150</v>
+      </c>
+      <c r="K15" s="13">
+        <v>51</v>
+      </c>
       <c r="L15" s="13">
-        <f>SUM(E15:I15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="66" x14ac:dyDescent="0.35">
+        <f>SUM(E15:K15)</f>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="D16" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="13">
+        <v>290</v>
+      </c>
+      <c r="F16" s="13">
+        <v>317</v>
+      </c>
+      <c r="G16" s="13">
+        <v>356</v>
+      </c>
+      <c r="H16" s="13">
+        <v>356</v>
+      </c>
+      <c r="I16" s="13">
+        <v>197</v>
+      </c>
+      <c r="J16" s="13">
+        <v>373</v>
+      </c>
+      <c r="K16" s="13">
+        <v>206</v>
+      </c>
       <c r="L16" s="13">
-        <f>SUM(E16:I16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="103.5" x14ac:dyDescent="0.25">
+        <f>SUM(E16:K16)</f>
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="D17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="13">
+        <v>24</v>
+      </c>
+      <c r="F17" s="13">
+        <v>14</v>
+      </c>
+      <c r="G17" s="13">
+        <v>15</v>
+      </c>
+      <c r="H17" s="13">
+        <v>18</v>
+      </c>
+      <c r="I17" s="13">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13">
+        <v>18</v>
+      </c>
+      <c r="K17" s="13">
+        <v>9</v>
+      </c>
       <c r="L17" s="13">
-        <f>SUM(E17:I17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="103.5" x14ac:dyDescent="0.25">
+        <f>SUM(E17:K17)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="D18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="13">
+        <v>9</v>
+      </c>
+      <c r="F18" s="13">
+        <v>7</v>
+      </c>
+      <c r="G18" s="13">
+        <v>10</v>
+      </c>
+      <c r="H18" s="13">
+        <v>5</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>8</v>
+      </c>
+      <c r="K18" s="13">
+        <v>12</v>
+      </c>
       <c r="L18" s="13">
-        <f>SUM(E18:I18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <f>SUM(E18:K18)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16" t="s">
@@ -13554,66 +15515,74 @@
       </c>
       <c r="E19" s="17">
         <f>SUM(E14:E18)</f>
-        <v>0</v>
+        <v>2293</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ref="F19:L19" si="1">SUM(F14:F18)</f>
-        <v>0</v>
+        <v>2498</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1844</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1887</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+        <v>1234</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="1"/>
+        <v>2331</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
       <c r="L19" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="D20" s="20"/>
-      <c r="L20" s="33">
-        <f>SUM(E19:I19)-L19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14095</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D20" s="37"/>
+      <c r="L20" s="27">
+        <f>SUM(E19:K19)-L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="J23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="L23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="102" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="102" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
@@ -13636,8 +15605,12 @@
       <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="J24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="L24" s="10" t="s">
         <v>20</v>
       </c>
@@ -13649,110 +15622,180 @@
       <c r="C25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="D25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1824</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1982</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1396</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1463</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1011</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1782</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1730</v>
+      </c>
       <c r="L25" s="13">
-        <f>SUM(E25:I25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="49.5" x14ac:dyDescent="0.4">
+        <f>SUM(E25:K25)</f>
+        <v>11188</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="82.5" x14ac:dyDescent="0.4">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="D26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="13">
+        <v>146</v>
+      </c>
+      <c r="F26" s="13">
+        <v>178</v>
+      </c>
+      <c r="G26" s="13">
+        <v>67</v>
+      </c>
+      <c r="H26" s="13">
+        <v>45</v>
+      </c>
+      <c r="I26" s="13">
+        <v>21</v>
+      </c>
+      <c r="J26" s="13">
+        <v>150</v>
+      </c>
+      <c r="K26" s="13">
+        <v>51</v>
+      </c>
       <c r="L26" s="13">
-        <f>SUM(E26:I26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="77.25" x14ac:dyDescent="0.25">
+        <f>SUM(E26:K26)</f>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="115.5" x14ac:dyDescent="0.4">
       <c r="B27" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="D27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="13">
+        <v>290</v>
+      </c>
+      <c r="F27" s="13">
+        <v>317</v>
+      </c>
+      <c r="G27" s="13">
+        <v>356</v>
+      </c>
+      <c r="H27" s="13">
+        <v>356</v>
+      </c>
+      <c r="I27" s="13">
+        <v>197</v>
+      </c>
+      <c r="J27" s="13">
+        <v>373</v>
+      </c>
+      <c r="K27" s="13">
+        <v>206</v>
+      </c>
       <c r="L27" s="13">
-        <f>SUM(E27:I27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="64.5" x14ac:dyDescent="0.25">
+        <f>SUM(E27:K27)</f>
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="115.5" x14ac:dyDescent="0.4">
       <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="D28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="13">
+        <v>24</v>
+      </c>
+      <c r="F28" s="13">
+        <v>14</v>
+      </c>
+      <c r="G28" s="13">
+        <v>15</v>
+      </c>
+      <c r="H28" s="13">
+        <v>18</v>
+      </c>
+      <c r="I28" s="13">
+        <v>5</v>
+      </c>
+      <c r="J28" s="13">
+        <v>18</v>
+      </c>
+      <c r="K28" s="13">
+        <v>9</v>
+      </c>
       <c r="L28" s="13">
-        <f>SUM(E28:I28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="99" x14ac:dyDescent="0.4">
+        <f>SUM(E28:K28)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="115.5" x14ac:dyDescent="0.4">
       <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="D29" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="13">
+        <v>9</v>
+      </c>
+      <c r="F29" s="13">
+        <v>7</v>
+      </c>
+      <c r="G29" s="13">
+        <v>10</v>
+      </c>
+      <c r="H29" s="13">
+        <v>5</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>8</v>
+      </c>
+      <c r="K29" s="13">
+        <v>12</v>
+      </c>
       <c r="L29" s="13">
-        <f>SUM(E29:I29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <f>SUM(E29:K29)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16" t="s">
@@ -13760,34 +15803,40 @@
       </c>
       <c r="E30" s="17">
         <f>SUM(E25:E29)</f>
-        <v>0</v>
+        <v>2293</v>
       </c>
       <c r="F30" s="17">
-        <f t="shared" ref="F30:L30" si="2">SUM(F25:F29)</f>
-        <v>0</v>
+        <f t="shared" ref="F30" si="2">SUM(F25:F29)</f>
+        <v>2498</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G30" si="3">SUM(G25:G29)</f>
+        <v>1844</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="H30" si="4">SUM(H25:H29)</f>
+        <v>1887</v>
       </c>
       <c r="I30" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+        <f t="shared" ref="I30" si="5">SUM(I25:I29)</f>
+        <v>1234</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" ref="J30" si="6">SUM(J25:J29)</f>
+        <v>2331</v>
+      </c>
+      <c r="K30" s="17">
+        <f t="shared" ref="K30" si="7">SUM(K25:K29)</f>
+        <v>2008</v>
+      </c>
       <c r="L30" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="33">
-        <f>SUM(E30:I30)-L30</f>
+        <f t="shared" ref="L30" si="8">SUM(L25:L29)</f>
+        <v>14095</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="27">
+        <f>SUM(E30:K30)-L30</f>
         <v>0</v>
       </c>
     </row>

--- a/TS Jatai Ghanam Project/Stas table for TS 4.1 TO 4.7.xlsx
+++ b/TS Jatai Ghanam Project/Stas table for TS 4.1 TO 4.7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Ghanam Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3FB6A9-E1DF-4574-BCE2-5CD247622D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6535AE-F44C-4CA0-A669-1AE19D23DD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2248,7 +2248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,6 +2333,21 @@
       <color rgb="FF000000"/>
       <name val="BRH Malayalam"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2438,7 +2453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -2539,6 +2554,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2822,8 +2842,8 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49:K58"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3746,11 +3766,11 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
+      <c r="D24" s="38">
+        <v>0</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
@@ -4684,13 +4704,13 @@
         <f t="shared" ref="C48:L48" si="0">SUM(C2:C47)</f>
         <v>52</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="39">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E48" s="26">
+        <v>32</v>
+      </c>
+      <c r="E48" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" s="26">
         <f t="shared" si="0"/>
@@ -4757,8 +4777,8 @@
       <c r="E51" t="s">
         <v>14</v>
       </c>
-      <c r="F51">
-        <v>24</v>
+      <c r="F51" s="40">
+        <v>23</v>
       </c>
       <c r="J51">
         <f>F57</f>
@@ -4769,7 +4789,7 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="40">
         <v>9</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4788,7 +4808,7 @@
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F54">
         <f>SUM(F49:F53)</f>
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>17</v>
@@ -4800,7 +4820,7 @@
       </c>
       <c r="F55">
         <f>K48-F54</f>
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J55">
         <f>J53-L48</f>
@@ -14807,47 +14827,47 @@
         <v>39</v>
       </c>
       <c r="B41" s="29">
-        <f>SUM(B2:B40)</f>
+        <f t="shared" ref="B41:L41" si="0">SUM(B2:B40)</f>
         <v>206</v>
       </c>
       <c r="C41" s="29">
-        <f>SUM(C2:C40)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D41" s="29">
-        <f>SUM(D2:D40)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E41" s="29">
-        <f>SUM(E2:E40)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F41" s="29">
-        <f>SUM(F2:F40)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="G41" s="29">
-        <f>SUM(G2:G40)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="H41" s="29">
-        <f>SUM(H2:H40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="29">
-        <f>SUM(I2:I40)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J41" s="29">
-        <f>SUM(J2:J40)</f>
+        <f t="shared" si="0"/>
         <v>1692</v>
       </c>
       <c r="K41" s="29">
-        <f>SUM(K2:K40)</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="L41" s="29">
-        <f>SUM(L2:L40)</f>
+        <f t="shared" si="0"/>
         <v>2210</v>
       </c>
     </row>
@@ -14958,8 +14978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15006,7 +15026,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
@@ -15050,7 +15070,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F3" s="13">
         <v>1982</v>
@@ -15072,7 +15092,7 @@
       </c>
       <c r="L3" s="13">
         <f>SUM(E3:K3)</f>
-        <v>11188</v>
+        <v>11189</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -15111,7 +15131,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
@@ -15158,7 +15178,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="13">
         <v>14</v>
@@ -15180,10 +15200,10 @@
       </c>
       <c r="L6" s="13">
         <f>SUM(E6:K6)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="54" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
@@ -15226,35 +15246,35 @@
         <v>23</v>
       </c>
       <c r="E8" s="17">
-        <f>SUM(E3:E7)</f>
+        <f t="shared" ref="E8:K8" si="0">SUM(E3:E7)</f>
         <v>2293</v>
       </c>
       <c r="F8" s="17">
-        <f>SUM(F3:F7)</f>
+        <f t="shared" si="0"/>
         <v>2498</v>
       </c>
       <c r="G8" s="17">
-        <f>SUM(G3:G7)</f>
+        <f t="shared" si="0"/>
         <v>1844</v>
       </c>
       <c r="H8" s="17">
-        <f>SUM(H3:H7)</f>
+        <f t="shared" si="0"/>
         <v>1887</v>
       </c>
       <c r="I8" s="17">
-        <f>SUM(I3:I7)</f>
+        <f t="shared" si="0"/>
         <v>1234</v>
       </c>
       <c r="J8" s="17">
-        <f>SUM(J3:J7)</f>
+        <f t="shared" si="0"/>
         <v>2331</v>
       </c>
       <c r="K8" s="17">
-        <f>SUM(K3:K7)</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="L8" s="17">
-        <f t="shared" ref="L8" si="0">SUM(L3:L7)</f>
+        <f t="shared" ref="L8" si="1">SUM(L3:L7)</f>
         <v>14095</v>
       </c>
     </row>
@@ -15338,7 +15358,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="13">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F14" s="13">
         <v>1982</v>
@@ -15360,10 +15380,10 @@
       </c>
       <c r="L14" s="13">
         <f>SUM(E14:K14)</f>
-        <v>11188</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="42.75" x14ac:dyDescent="0.3">
+        <v>11189</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="57" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>27</v>
       </c>
@@ -15446,7 +15466,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="13">
         <v>14</v>
@@ -15468,7 +15488,7 @@
       </c>
       <c r="L17" s="13">
         <f>SUM(E17:K17)</f>
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
@@ -15518,31 +15538,31 @@
         <v>2293</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" ref="F19:L19" si="1">SUM(F14:F18)</f>
+        <f t="shared" ref="F19:L19" si="2">SUM(F14:F18)</f>
         <v>2498</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1844</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1887</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1234</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2331</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2008</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14095</v>
       </c>
     </row>
@@ -15626,7 +15646,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="13">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F25" s="13">
         <v>1982</v>
@@ -15648,7 +15668,7 @@
       </c>
       <c r="L25" s="13">
         <f>SUM(E25:K25)</f>
-        <v>11188</v>
+        <v>11189</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="82.5" x14ac:dyDescent="0.4">
@@ -15687,7 +15707,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="115.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" ht="132" x14ac:dyDescent="0.4">
       <c r="B27" s="12" t="s">
         <v>29</v>
       </c>
@@ -15734,7 +15754,7 @@
         <v>40</v>
       </c>
       <c r="E28" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="13">
         <v>14</v>
@@ -15756,10 +15776,10 @@
       </c>
       <c r="L28" s="13">
         <f>SUM(E28:K28)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="115.5" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="132" x14ac:dyDescent="0.4">
       <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
@@ -15806,31 +15826,31 @@
         <v>2293</v>
       </c>
       <c r="F30" s="17">
-        <f t="shared" ref="F30" si="2">SUM(F25:F29)</f>
+        <f t="shared" ref="F30" si="3">SUM(F25:F29)</f>
         <v>2498</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" ref="G30" si="3">SUM(G25:G29)</f>
+        <f t="shared" ref="G30" si="4">SUM(G25:G29)</f>
         <v>1844</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" ref="H30" si="4">SUM(H25:H29)</f>
+        <f t="shared" ref="H30" si="5">SUM(H25:H29)</f>
         <v>1887</v>
       </c>
       <c r="I30" s="17">
-        <f t="shared" ref="I30" si="5">SUM(I25:I29)</f>
+        <f t="shared" ref="I30" si="6">SUM(I25:I29)</f>
         <v>1234</v>
       </c>
       <c r="J30" s="17">
-        <f t="shared" ref="J30" si="6">SUM(J25:J29)</f>
+        <f t="shared" ref="J30" si="7">SUM(J25:J29)</f>
         <v>2331</v>
       </c>
       <c r="K30" s="17">
-        <f t="shared" ref="K30" si="7">SUM(K25:K29)</f>
+        <f t="shared" ref="K30" si="8">SUM(K25:K29)</f>
         <v>2008</v>
       </c>
       <c r="L30" s="17">
-        <f t="shared" ref="L30" si="8">SUM(L25:L29)</f>
+        <f t="shared" ref="L30" si="9">SUM(L25:L29)</f>
         <v>14095</v>
       </c>
     </row>

--- a/TS Jatai Ghanam Project/Stas table for TS 4.1 TO 4.7.xlsx
+++ b/TS Jatai Ghanam Project/Stas table for TS 4.1 TO 4.7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Ghanam Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6535AE-F44C-4CA0-A669-1AE19D23DD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F717547-F1C5-4EDD-A44C-824F64AC2EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="328">
   <si>
     <t>Panchaati Ref</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Particulars</t>
   </si>
   <si>
-    <t>Example ( in Pada PaaTam)</t>
-  </si>
-  <si>
     <t>No. of Padams as per Pada PaaTam</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>PGS</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">No. of Padams as per Pada PaaTam </t>
@@ -147,127 +141,6 @@
   </si>
   <si>
     <r>
-      <t>इषे</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>त्वा</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>ऊर्जे</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>उपसर्ग</t>
     </r>
     <r>
@@ -301,253 +174,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>एति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>आ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>इति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>उपेति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>उप</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>इति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>प्रेति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>प्र</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>इति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
     </r>
   </si>
   <si>
@@ -622,253 +248,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ते</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>ते</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>इति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>त्वे</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>त्वे</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>इति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>चक्षुषी</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>चक्षुषी</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>इति</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> विष्णो = विष्णो इति॒ |</t>
     </r>
   </si>
   <si>
@@ -930,1317 +309,1182 @@
     </r>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>Prasnam No.4.1</t>
+  </si>
+  <si>
+    <t>Prasnam No.4.2</t>
+  </si>
+  <si>
+    <t>Prasnam No.4.3</t>
+  </si>
+  <si>
+    <t>Prasnam No.4.4</t>
+  </si>
+  <si>
+    <t>Prasnam No.4.5</t>
+  </si>
+  <si>
+    <t>Prasnam No.4.6</t>
+  </si>
+  <si>
+    <t>4.1.1.1 :</t>
+  </si>
+  <si>
+    <t>4.1.1.2 :</t>
+  </si>
+  <si>
+    <t>4.1.1.3 :</t>
+  </si>
+  <si>
+    <t>4.1.1.4 :</t>
+  </si>
+  <si>
+    <t>4.1.2.1 :</t>
+  </si>
+  <si>
+    <t>4.1.2.2 :</t>
+  </si>
+  <si>
+    <t>4.1.2.3 :</t>
+  </si>
+  <si>
+    <t>4.1.2.4 :</t>
+  </si>
+  <si>
+    <t>4.1.2.5 :</t>
+  </si>
+  <si>
+    <t>4.1.3.1 :</t>
+  </si>
+  <si>
+    <t>4.1.3.2 :</t>
+  </si>
+  <si>
+    <t>4.1.3.3 :</t>
+  </si>
+  <si>
+    <t>4.1.3.4 :</t>
+  </si>
+  <si>
+    <t>4.1.4.1 :</t>
+  </si>
+  <si>
+    <t>4.1.4.2 :</t>
+  </si>
+  <si>
+    <t>4.1.4.3 :</t>
+  </si>
+  <si>
+    <t>4.1.4.4 :</t>
+  </si>
+  <si>
+    <t>4.1.5.1 :</t>
+  </si>
+  <si>
+    <t>4.1.5.2 :</t>
+  </si>
+  <si>
+    <t>4.1.5.3 :</t>
+  </si>
+  <si>
+    <t>4.1.5.4 :</t>
+  </si>
+  <si>
+    <t>4.1.6.1 :</t>
+  </si>
+  <si>
+    <t>4.1.6.2 :</t>
+  </si>
+  <si>
+    <t>4.1.6.3 :</t>
+  </si>
+  <si>
+    <t>4.1.7.1 :</t>
+  </si>
+  <si>
+    <t>4.1.7.2 :</t>
+  </si>
+  <si>
+    <t>4.1.7.3 :</t>
+  </si>
+  <si>
+    <t>4.1.7.4 :</t>
+  </si>
+  <si>
+    <t>4.1.8.1 :</t>
+  </si>
+  <si>
+    <t>4.1.8.2 :</t>
+  </si>
+  <si>
+    <t>4.1.8.3 :</t>
+  </si>
+  <si>
+    <t>4.1.8.4 :</t>
+  </si>
+  <si>
+    <t>4.1.8.5 :</t>
+  </si>
+  <si>
+    <t>4.1.8.6 :</t>
+  </si>
+  <si>
+    <t>4.1.9.1 :</t>
+  </si>
+  <si>
+    <t>4.1.9.2 :</t>
+  </si>
+  <si>
+    <t>4.1.9.3 :</t>
+  </si>
+  <si>
+    <t>4.1.10.1 :</t>
+  </si>
+  <si>
+    <t>4.1.10.2 :</t>
+  </si>
+  <si>
+    <t>4.1.10.3 :</t>
+  </si>
+  <si>
+    <t>4.1.10.4 :</t>
+  </si>
+  <si>
+    <t>4.1.10.5 :</t>
+  </si>
+  <si>
+    <t>4.1.11.1 :</t>
+  </si>
+  <si>
+    <t>4.1.11.2 :</t>
+  </si>
+  <si>
+    <t>4.1.11.3 :</t>
+  </si>
+  <si>
+    <t>4.1.11.4 :</t>
+  </si>
+  <si>
+    <t>4.2.1.1 :</t>
+  </si>
+  <si>
+    <t>4.2.1.2 :</t>
+  </si>
+  <si>
+    <t>4.2.1.3 :</t>
+  </si>
+  <si>
+    <t>4.2.1.4 :</t>
+  </si>
+  <si>
+    <t>4.2.1.5 :</t>
+  </si>
+  <si>
+    <t>4.2.2.1 :</t>
+  </si>
+  <si>
+    <t>4.2.2.2 :</t>
+  </si>
+  <si>
+    <t>4.2.2.3 :</t>
+  </si>
+  <si>
+    <t>4.2.2.4 :</t>
+  </si>
+  <si>
+    <t>4.2.3.1 :</t>
+  </si>
+  <si>
+    <t>4.2.3.2 :</t>
+  </si>
+  <si>
+    <t>4.2.3.3 :</t>
+  </si>
+  <si>
+    <t>4.2.3.4 :</t>
+  </si>
+  <si>
+    <t>4.2.4.1 :</t>
+  </si>
+  <si>
+    <t>4.2.4.2 :</t>
+  </si>
+  <si>
+    <t>4.2.4.3 :</t>
+  </si>
+  <si>
+    <t>4.2.4.4 :</t>
+  </si>
+  <si>
+    <t>4.2.5.1 :</t>
+  </si>
+  <si>
+    <t>4.2.5.2 :</t>
+  </si>
+  <si>
+    <t>4.2.5.3 :</t>
+  </si>
+  <si>
+    <t>4.2.5.4 :</t>
+  </si>
+  <si>
+    <t>4.2.5.5 :</t>
+  </si>
+  <si>
+    <t>4.2.5.6 :</t>
+  </si>
+  <si>
+    <t>4.2.6.1 :</t>
+  </si>
+  <si>
+    <t>4.2.6.2 :</t>
+  </si>
+  <si>
+    <t>4.2.6.3 :</t>
+  </si>
+  <si>
+    <t>4.2.6.4 :</t>
+  </si>
+  <si>
+    <t>4.2.6.5 :</t>
+  </si>
+  <si>
+    <t>4.2.7.1 :</t>
+  </si>
+  <si>
+    <t>4.2.7.2 :</t>
+  </si>
+  <si>
+    <t>4.2.7.3 :</t>
+  </si>
+  <si>
+    <t>4.2.7.4 :</t>
+  </si>
+  <si>
+    <t>4.2.8.1 :</t>
+  </si>
+  <si>
+    <t>4.2.8.2 :</t>
+  </si>
+  <si>
+    <t>4.2.8.3 :</t>
+  </si>
+  <si>
+    <t>4.2.9.1 :</t>
+  </si>
+  <si>
+    <t>4.2.9.2 :</t>
+  </si>
+  <si>
+    <t>4.2.9.3 :</t>
+  </si>
+  <si>
+    <t>4.2.9.4 :</t>
+  </si>
+  <si>
+    <t>4.2.9.5 :</t>
+  </si>
+  <si>
+    <t>4.2.9.6 :</t>
+  </si>
+  <si>
+    <t>4.2.10.1 :</t>
+  </si>
+  <si>
+    <t>4.2.10.2 :</t>
+  </si>
+  <si>
+    <t>4.2.10.3 :</t>
+  </si>
+  <si>
+    <t>4.2.10.4 :</t>
+  </si>
+  <si>
+    <t>4.2.11.1 :</t>
+  </si>
+  <si>
+    <t>4.2.11.2 :</t>
+  </si>
+  <si>
+    <t>4.2.11.3 :</t>
+  </si>
+  <si>
+    <t>4.3.1.1 :</t>
+  </si>
+  <si>
+    <t>4.3.2.1 :</t>
+  </si>
+  <si>
+    <t>4.3.2.2 :</t>
+  </si>
+  <si>
+    <t>4.3.2.3 :</t>
+  </si>
+  <si>
+    <t>4.3.3.1 :</t>
+  </si>
+  <si>
+    <t>4.3.3.2 :</t>
+  </si>
+  <si>
+    <t>4.3.4.1 :</t>
+  </si>
+  <si>
+    <t>4.3.4.2 :</t>
+  </si>
+  <si>
+    <t>4.3.4.3 :</t>
+  </si>
+  <si>
+    <t>4.3.5.1 :</t>
+  </si>
+  <si>
+    <t>4.3.6.1 :</t>
+  </si>
+  <si>
+    <t>4.3.6.2 :</t>
+  </si>
+  <si>
+    <t>4.3.7.1 :</t>
+  </si>
+  <si>
+    <t>4.3.7.2 :</t>
+  </si>
+  <si>
+    <t>4.3.8.1 :</t>
+  </si>
+  <si>
+    <t>4.3.9.1 :</t>
+  </si>
+  <si>
+    <t>4.3.9.2 :</t>
+  </si>
+  <si>
+    <t>4.3.10.1 :</t>
+  </si>
+  <si>
+    <t>4.3.10.2 :</t>
+  </si>
+  <si>
+    <t>4.3.10.3 :</t>
+  </si>
+  <si>
+    <t>4.3.11.1 :</t>
+  </si>
+  <si>
+    <t>4.3.11.2 :</t>
+  </si>
+  <si>
+    <t>4.3.11.3 :</t>
+  </si>
+  <si>
+    <t>4.3.11.4 :</t>
+  </si>
+  <si>
+    <t>4.3.11.5 :</t>
+  </si>
+  <si>
+    <t>4.3.12.1 :</t>
+  </si>
+  <si>
+    <t>4.3.12.2 :</t>
+  </si>
+  <si>
+    <t>4.3.12.3 :</t>
+  </si>
+  <si>
+    <t>4.3.13.1 :</t>
+  </si>
+  <si>
+    <t>4.3.13.2 :</t>
+  </si>
+  <si>
+    <t>4.3.13.3 :</t>
+  </si>
+  <si>
+    <t>4.3.13.4 :</t>
+  </si>
+  <si>
+    <t>4.3.13.5 :</t>
+  </si>
+  <si>
+    <t>4.3.13.6 :</t>
+  </si>
+  <si>
+    <t>4.3.13.7 :</t>
+  </si>
+  <si>
+    <t>4.3.13.8 :</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>4.4.1.1 :</t>
+  </si>
+  <si>
+    <t>4.4.1.2 :</t>
+  </si>
+  <si>
+    <t>4.4.1.3 :</t>
+  </si>
+  <si>
+    <t>4.4.2.1 :</t>
+  </si>
+  <si>
+    <t>4.4.2.2 :</t>
+  </si>
+  <si>
+    <t>4.4.2.3 :</t>
+  </si>
+  <si>
+    <t>4.4.3.1 :</t>
+  </si>
+  <si>
+    <t>4.4.3.2 :</t>
+  </si>
+  <si>
+    <t>4.4.3.3 :</t>
+  </si>
+  <si>
+    <t>4.4.4.1 :</t>
+  </si>
+  <si>
+    <t>4.4.4.2 :</t>
+  </si>
+  <si>
+    <t>4.4.4.3 :</t>
+  </si>
+  <si>
+    <t>4.4.4.4 :</t>
+  </si>
+  <si>
+    <t>4.4.4.5 :</t>
+  </si>
+  <si>
+    <t>4.4.4.6 :</t>
+  </si>
+  <si>
+    <t>4.4.4.7 :</t>
+  </si>
+  <si>
+    <t>4.4.4.8 :</t>
+  </si>
+  <si>
+    <t>4.4.5.1 :</t>
+  </si>
+  <si>
+    <t>4.4.5.2 :</t>
+  </si>
+  <si>
+    <t>4.4.6.1 :</t>
+  </si>
+  <si>
+    <t>4.4.6.2 :</t>
+  </si>
+  <si>
+    <t>4.4.7.1 :</t>
+  </si>
+  <si>
+    <t>4.4.7.2 :</t>
+  </si>
+  <si>
+    <t>4.4.8.1 :</t>
+  </si>
+  <si>
+    <t>4.4.9.1 :</t>
+  </si>
+  <si>
+    <t>4.4.10.1 :</t>
+  </si>
+  <si>
+    <t>4.4.10.2 :</t>
+  </si>
+  <si>
+    <t>4.4.10.3 :</t>
+  </si>
+  <si>
+    <t>4.4.11.1 :</t>
+  </si>
+  <si>
+    <t>4.4.11.2 :</t>
+  </si>
+  <si>
+    <t>4.4.11.3 :</t>
+  </si>
+  <si>
+    <t>4.4.11.4 :</t>
+  </si>
+  <si>
+    <t>4.4.12.1 :</t>
+  </si>
+  <si>
+    <t>4.4.12.2 :</t>
+  </si>
+  <si>
+    <t>4.4.12.3 :</t>
+  </si>
+  <si>
+    <t>4.4.12.4 :</t>
+  </si>
+  <si>
+    <t>4.4.12.5 :</t>
+  </si>
+  <si>
+    <t>Prasnam No.4.7</t>
+  </si>
+  <si>
+    <t>Prasnam No.4.1 to 4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.1.1 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.1.2 :    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.1.3 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.1.4 :     </t>
+  </si>
+  <si>
+    <t>4.5.2.1 :</t>
+  </si>
+  <si>
+    <t>4.5.2.2 :</t>
+  </si>
+  <si>
+    <t>4.5.3.1 :</t>
+  </si>
+  <si>
+    <t>4.5.3.2 :</t>
+  </si>
+  <si>
+    <t>4.5.4.1 :</t>
+  </si>
+  <si>
+    <t>4.5.4.2 :</t>
+  </si>
+  <si>
+    <t>4.5.5.1 :</t>
+  </si>
+  <si>
+    <t>4.5.5.2 :</t>
+  </si>
+  <si>
+    <t>4.5.6.1 :</t>
+  </si>
+  <si>
+    <t>4.5.6.2 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.7.1 :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.7.2 :    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.8.1 :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.8.2 :    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.9.1 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.9.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.10.1 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.10.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.10.3 :    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.10.4 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.10.5 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.11.1 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.11.2 :       </t>
+  </si>
+  <si>
+    <t>4.6.1.1 :</t>
+  </si>
+  <si>
+    <t>4.6.1.2 :</t>
+  </si>
+  <si>
+    <t>4.6.1.3 :</t>
+  </si>
+  <si>
+    <t>4.6.1.4 :</t>
+  </si>
+  <si>
+    <t>4.6.1.5 :</t>
+  </si>
+  <si>
+    <t>4.6.2.1 :</t>
+  </si>
+  <si>
+    <t>4.6.2.2 :</t>
+  </si>
+  <si>
+    <t>4.6.2.3 :</t>
+  </si>
+  <si>
+    <t>4.6.2.4 :</t>
+  </si>
+  <si>
+    <t>4.6.2.5 :</t>
+  </si>
+  <si>
+    <t>4.6.2.6 :</t>
+  </si>
+  <si>
+    <t>4.6.3.1 :</t>
+  </si>
+  <si>
+    <t>4.6.3.2 :</t>
+  </si>
+  <si>
+    <t>4.6.3.3 :</t>
+  </si>
+  <si>
+    <t>4.6.3.4 :</t>
+  </si>
+  <si>
+    <t>4.6.4.1 :</t>
+  </si>
+  <si>
+    <t>4.6.4.2 :</t>
+  </si>
+  <si>
+    <t>4.6.4.3 :</t>
+  </si>
+  <si>
+    <t>4.6.4.4 :</t>
+  </si>
+  <si>
+    <t>4.6.4.5 :</t>
+  </si>
+  <si>
+    <t>4.6.5.1 :</t>
+  </si>
+  <si>
+    <t>4.6.5.2 :</t>
+  </si>
+  <si>
+    <t>4.6.5.3 :</t>
+  </si>
+  <si>
+    <t>4.6.5.4 :</t>
+  </si>
+  <si>
+    <t>4.6.5.5 :</t>
+  </si>
+  <si>
+    <t>4.6.5.6 :</t>
+  </si>
+  <si>
+    <t>4.6.6.1 :</t>
+  </si>
+  <si>
+    <t>4.6.6.2 :</t>
+  </si>
+  <si>
+    <t>4.6.6.3 :</t>
+  </si>
+  <si>
+    <t>4.6.6.4 :</t>
+  </si>
+  <si>
+    <t>4.6.6.5 :</t>
+  </si>
+  <si>
+    <t>4.6.6.6 :</t>
+  </si>
+  <si>
+    <t>4.6.6.7 :</t>
+  </si>
+  <si>
+    <t>4.6.7.1 :</t>
+  </si>
+  <si>
+    <t>4.6.7.2 :</t>
+  </si>
+  <si>
+    <t>4.6.7.3 :</t>
+  </si>
+  <si>
+    <t>4.6.7.4 :</t>
+  </si>
+  <si>
+    <t>4.6.7.5 :</t>
+  </si>
+  <si>
+    <t>4.6.8.1 :</t>
+  </si>
+  <si>
+    <t>4.6.8.2 :</t>
+  </si>
+  <si>
+    <t>4.6.8.3 :</t>
+  </si>
+  <si>
+    <t>4.6.8.4 :</t>
+  </si>
+  <si>
+    <t>4.6.9.1 :</t>
+  </si>
+  <si>
+    <t>4.6.9.2 :</t>
+  </si>
+  <si>
+    <t>4.6.9.3 :</t>
+  </si>
+  <si>
+    <t>4.6.9.4 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.1.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.1.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.2.1 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.2.2 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.3.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.3.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.4.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.4.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.5.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.5.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.6.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.6.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.7.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.7.2 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.8.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.9.1 :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.10.1 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.10.2 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.11.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.11.2 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.12.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.12.2 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.12.3 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.3 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.4 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.5 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.14.1 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.14.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.14.3 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.14.4 :      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.1 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.2 :     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.3 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.4 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.5 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.6 :       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.7 :       </t>
+  </si>
+  <si>
+    <t>സമാന്യ പദാനി</t>
+  </si>
+  <si>
+    <t>ഉപസര്‍ഗ പദാനി</t>
+  </si>
+  <si>
+    <t>വേഷ്ടന പദാനി</t>
+  </si>
+  <si>
+    <t>പ്രഗ്രഹ പദാനി</t>
+  </si>
+  <si>
+    <t>പ്രഗ്രഹ വേഷ്ടന പദാനി</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve"> </t>
+      <t>ஸாமான்ய</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-      </rPr>
-      <t>अधिषवणे</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>अधिषवणे</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t>इत्यधि</t>
+      <t>பதா</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - </t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Latha"/>
+        <family val="2"/>
+      </rPr>
+      <t>னி</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>உபஸர்</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Latha"/>
+        <family val="2"/>
+      </rPr>
+      <t>‍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Latha"/>
+        <family val="2"/>
+      </rPr>
+      <t>க</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t>सवने</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t>।</t>
+      <t>பதா</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 'इन्द्राग्नी = इन्द्राग्नी इतीन्द्र - अग्नी </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>उपायवः</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> =  </t>
+      <t>னி</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>வேஷ்டன</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-      </rPr>
-      <t>उपायव</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t>इत्युप</t>
+      <t>பதா</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -  </t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Latha"/>
+        <family val="2"/>
+      </rPr>
+      <t>னி</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ப்ரக்</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t>आयवः</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t>ரஹ</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t>बाहुभ्याम्</t>
+      <t>பதா</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = </t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Latha"/>
+        <family val="2"/>
+      </rPr>
+      <t>னி</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ப்ரக்</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t>बाहुभ्यामिति</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Latha"/>
         <family val="2"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t>ரஹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Latha"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
+        <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t>बाहु</t>
+      <t>வேஷ்டன</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Latha"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Latha"/>
+        <family val="2"/>
+      </rPr>
+      <t>பதா</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>भ्याम्</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C¥r | Zûx | D¦ª¥R |   </t>
-  </si>
-  <si>
-    <t>¥Z = (¥Z CZy) | ¥Zû = (¥Zû CZy) | P±¡rz = (P±¡rz CZy) | py¥rêx = py¥rêx CZy |</t>
-  </si>
-  <si>
-    <t>Acyrp¥Y = Acyrp¥Y CZõcy - sp¥d | CöÉx²z = CöÉx²z CZzöÉ-A²z |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">இஷே | த்3வா | ஊர்‍ஜே |   </t>
-  </si>
-  <si>
-    <t>ஏதி = (ஆ+இதி)  | உபேதி = (உப+இதி) | ப்ரேதி = (ப்ர+இதி) |</t>
-  </si>
-  <si>
-    <t>தே = (தே இதி)  | த்வே = (த்வே இதி)  | சக்ஷுஷீ = (சக்ஷுஷீ இதி) | விஷ்ணோ = (விஷ்ணோ இதி)  |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">அதி4ஷவணே = அதி4ஷவணே இத்யதி4 - ஸவனே | இந்த்3ராக்3னீ = இந்த்3ராக்3னீ இதீந்த்3ர - அக்3னீ  </t>
-  </si>
-  <si>
-    <r>
-      <t>உபாயவ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Latha"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> =  உபாயவ இத்யுப - ஆயவ</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Latha"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Latha"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> | பா3ஹுப்4யாம் = பா3ஹுப்4யாமிதி பா3ஹு -  ப்4யாம்  |  </t>
-    </r>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>ord</t>
-  </si>
-  <si>
-    <t>Prasnam No.4.1</t>
-  </si>
-  <si>
-    <t>Prasnam No.4.2</t>
-  </si>
-  <si>
-    <t>Prasnam No.4.3</t>
-  </si>
-  <si>
-    <t>Prasnam No.4.4</t>
-  </si>
-  <si>
-    <t>Prasnam No.4.5</t>
-  </si>
-  <si>
-    <t>Prasnam No.4.6</t>
-  </si>
-  <si>
-    <t>4.1.1.1 :</t>
-  </si>
-  <si>
-    <t>4.1.1.2 :</t>
-  </si>
-  <si>
-    <t>4.1.1.3 :</t>
-  </si>
-  <si>
-    <t>4.1.1.4 :</t>
-  </si>
-  <si>
-    <t>4.1.2.1 :</t>
-  </si>
-  <si>
-    <t>4.1.2.2 :</t>
-  </si>
-  <si>
-    <t>4.1.2.3 :</t>
-  </si>
-  <si>
-    <t>4.1.2.4 :</t>
-  </si>
-  <si>
-    <t>4.1.2.5 :</t>
-  </si>
-  <si>
-    <t>4.1.3.1 :</t>
-  </si>
-  <si>
-    <t>4.1.3.2 :</t>
-  </si>
-  <si>
-    <t>4.1.3.3 :</t>
-  </si>
-  <si>
-    <t>4.1.3.4 :</t>
-  </si>
-  <si>
-    <t>4.1.4.1 :</t>
-  </si>
-  <si>
-    <t>4.1.4.2 :</t>
-  </si>
-  <si>
-    <t>4.1.4.3 :</t>
-  </si>
-  <si>
-    <t>4.1.4.4 :</t>
-  </si>
-  <si>
-    <t>4.1.5.1 :</t>
-  </si>
-  <si>
-    <t>4.1.5.2 :</t>
-  </si>
-  <si>
-    <t>4.1.5.3 :</t>
-  </si>
-  <si>
-    <t>4.1.5.4 :</t>
-  </si>
-  <si>
-    <t>4.1.6.1 :</t>
-  </si>
-  <si>
-    <t>4.1.6.2 :</t>
-  </si>
-  <si>
-    <t>4.1.6.3 :</t>
-  </si>
-  <si>
-    <t>4.1.7.1 :</t>
-  </si>
-  <si>
-    <t>4.1.7.2 :</t>
-  </si>
-  <si>
-    <t>4.1.7.3 :</t>
-  </si>
-  <si>
-    <t>4.1.7.4 :</t>
-  </si>
-  <si>
-    <t>4.1.8.1 :</t>
-  </si>
-  <si>
-    <t>4.1.8.2 :</t>
-  </si>
-  <si>
-    <t>4.1.8.3 :</t>
-  </si>
-  <si>
-    <t>4.1.8.4 :</t>
-  </si>
-  <si>
-    <t>4.1.8.5 :</t>
-  </si>
-  <si>
-    <t>4.1.8.6 :</t>
-  </si>
-  <si>
-    <t>4.1.9.1 :</t>
-  </si>
-  <si>
-    <t>4.1.9.2 :</t>
-  </si>
-  <si>
-    <t>4.1.9.3 :</t>
-  </si>
-  <si>
-    <t>4.1.10.1 :</t>
-  </si>
-  <si>
-    <t>4.1.10.2 :</t>
-  </si>
-  <si>
-    <t>4.1.10.3 :</t>
-  </si>
-  <si>
-    <t>4.1.10.4 :</t>
-  </si>
-  <si>
-    <t>4.1.10.5 :</t>
-  </si>
-  <si>
-    <t>4.1.11.1 :</t>
-  </si>
-  <si>
-    <t>4.1.11.2 :</t>
-  </si>
-  <si>
-    <t>4.1.11.3 :</t>
-  </si>
-  <si>
-    <t>4.1.11.4 :</t>
-  </si>
-  <si>
-    <t>4.2.1.1 :</t>
-  </si>
-  <si>
-    <t>4.2.1.2 :</t>
-  </si>
-  <si>
-    <t>4.2.1.3 :</t>
-  </si>
-  <si>
-    <t>4.2.1.4 :</t>
-  </si>
-  <si>
-    <t>4.2.1.5 :</t>
-  </si>
-  <si>
-    <t>4.2.2.1 :</t>
-  </si>
-  <si>
-    <t>4.2.2.2 :</t>
-  </si>
-  <si>
-    <t>4.2.2.3 :</t>
-  </si>
-  <si>
-    <t>4.2.2.4 :</t>
-  </si>
-  <si>
-    <t>4.2.3.1 :</t>
-  </si>
-  <si>
-    <t>4.2.3.2 :</t>
-  </si>
-  <si>
-    <t>4.2.3.3 :</t>
-  </si>
-  <si>
-    <t>4.2.3.4 :</t>
-  </si>
-  <si>
-    <t>4.2.4.1 :</t>
-  </si>
-  <si>
-    <t>4.2.4.2 :</t>
-  </si>
-  <si>
-    <t>4.2.4.3 :</t>
-  </si>
-  <si>
-    <t>4.2.4.4 :</t>
-  </si>
-  <si>
-    <t>4.2.5.1 :</t>
-  </si>
-  <si>
-    <t>4.2.5.2 :</t>
-  </si>
-  <si>
-    <t>4.2.5.3 :</t>
-  </si>
-  <si>
-    <t>4.2.5.4 :</t>
-  </si>
-  <si>
-    <t>4.2.5.5 :</t>
-  </si>
-  <si>
-    <t>4.2.5.6 :</t>
-  </si>
-  <si>
-    <t>4.2.6.1 :</t>
-  </si>
-  <si>
-    <t>4.2.6.2 :</t>
-  </si>
-  <si>
-    <t>4.2.6.3 :</t>
-  </si>
-  <si>
-    <t>4.2.6.4 :</t>
-  </si>
-  <si>
-    <t>4.2.6.5 :</t>
-  </si>
-  <si>
-    <t>4.2.7.1 :</t>
-  </si>
-  <si>
-    <t>4.2.7.2 :</t>
-  </si>
-  <si>
-    <t>4.2.7.3 :</t>
-  </si>
-  <si>
-    <t>4.2.7.4 :</t>
-  </si>
-  <si>
-    <t>4.2.8.1 :</t>
-  </si>
-  <si>
-    <t>4.2.8.2 :</t>
-  </si>
-  <si>
-    <t>4.2.8.3 :</t>
-  </si>
-  <si>
-    <t>4.2.9.1 :</t>
-  </si>
-  <si>
-    <t>4.2.9.2 :</t>
-  </si>
-  <si>
-    <t>4.2.9.3 :</t>
-  </si>
-  <si>
-    <t>4.2.9.4 :</t>
-  </si>
-  <si>
-    <t>4.2.9.5 :</t>
-  </si>
-  <si>
-    <t>4.2.9.6 :</t>
-  </si>
-  <si>
-    <t>4.2.10.1 :</t>
-  </si>
-  <si>
-    <t>4.2.10.2 :</t>
-  </si>
-  <si>
-    <t>4.2.10.3 :</t>
-  </si>
-  <si>
-    <t>4.2.10.4 :</t>
-  </si>
-  <si>
-    <t>4.2.11.1 :</t>
-  </si>
-  <si>
-    <t>4.2.11.2 :</t>
-  </si>
-  <si>
-    <t>4.2.11.3 :</t>
-  </si>
-  <si>
-    <t>4.3.1.1 :</t>
-  </si>
-  <si>
-    <t>4.3.2.1 :</t>
-  </si>
-  <si>
-    <t>4.3.2.2 :</t>
-  </si>
-  <si>
-    <t>4.3.2.3 :</t>
-  </si>
-  <si>
-    <t>4.3.3.1 :</t>
-  </si>
-  <si>
-    <t>4.3.3.2 :</t>
-  </si>
-  <si>
-    <t>4.3.4.1 :</t>
-  </si>
-  <si>
-    <t>4.3.4.2 :</t>
-  </si>
-  <si>
-    <t>4.3.4.3 :</t>
-  </si>
-  <si>
-    <t>4.3.5.1 :</t>
-  </si>
-  <si>
-    <t>4.3.6.1 :</t>
-  </si>
-  <si>
-    <t>4.3.6.2 :</t>
-  </si>
-  <si>
-    <t>4.3.7.1 :</t>
-  </si>
-  <si>
-    <t>4.3.7.2 :</t>
-  </si>
-  <si>
-    <t>4.3.8.1 :</t>
-  </si>
-  <si>
-    <t>4.3.9.1 :</t>
-  </si>
-  <si>
-    <t>4.3.9.2 :</t>
-  </si>
-  <si>
-    <t>4.3.10.1 :</t>
-  </si>
-  <si>
-    <t>4.3.10.2 :</t>
-  </si>
-  <si>
-    <t>4.3.10.3 :</t>
-  </si>
-  <si>
-    <t>4.3.11.1 :</t>
-  </si>
-  <si>
-    <t>4.3.11.2 :</t>
-  </si>
-  <si>
-    <t>4.3.11.3 :</t>
-  </si>
-  <si>
-    <t>4.3.11.4 :</t>
-  </si>
-  <si>
-    <t>4.3.11.5 :</t>
-  </si>
-  <si>
-    <t>4.3.12.1 :</t>
-  </si>
-  <si>
-    <t>4.3.12.2 :</t>
-  </si>
-  <si>
-    <t>4.3.12.3 :</t>
-  </si>
-  <si>
-    <t>4.3.13.1 :</t>
-  </si>
-  <si>
-    <t>4.3.13.2 :</t>
-  </si>
-  <si>
-    <t>4.3.13.3 :</t>
-  </si>
-  <si>
-    <t>4.3.13.4 :</t>
-  </si>
-  <si>
-    <t>4.3.13.5 :</t>
-  </si>
-  <si>
-    <t>4.3.13.6 :</t>
-  </si>
-  <si>
-    <t>4.3.13.7 :</t>
-  </si>
-  <si>
-    <t>4.3.13.8 :</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>4.4.1.1 :</t>
-  </si>
-  <si>
-    <t>4.4.1.2 :</t>
-  </si>
-  <si>
-    <t>4.4.1.3 :</t>
-  </si>
-  <si>
-    <t>4.4.2.1 :</t>
-  </si>
-  <si>
-    <t>4.4.2.2 :</t>
-  </si>
-  <si>
-    <t>4.4.2.3 :</t>
-  </si>
-  <si>
-    <t>4.4.3.1 :</t>
-  </si>
-  <si>
-    <t>4.4.3.2 :</t>
-  </si>
-  <si>
-    <t>4.4.3.3 :</t>
-  </si>
-  <si>
-    <t>4.4.4.1 :</t>
-  </si>
-  <si>
-    <t>4.4.4.2 :</t>
-  </si>
-  <si>
-    <t>4.4.4.3 :</t>
-  </si>
-  <si>
-    <t>4.4.4.4 :</t>
-  </si>
-  <si>
-    <t>4.4.4.5 :</t>
-  </si>
-  <si>
-    <t>4.4.4.6 :</t>
-  </si>
-  <si>
-    <t>4.4.4.7 :</t>
-  </si>
-  <si>
-    <t>4.4.4.8 :</t>
-  </si>
-  <si>
-    <t>4.4.5.1 :</t>
-  </si>
-  <si>
-    <t>4.4.5.2 :</t>
-  </si>
-  <si>
-    <t>4.4.6.1 :</t>
-  </si>
-  <si>
-    <t>4.4.6.2 :</t>
-  </si>
-  <si>
-    <t>4.4.7.1 :</t>
-  </si>
-  <si>
-    <t>4.4.7.2 :</t>
-  </si>
-  <si>
-    <t>4.4.8.1 :</t>
-  </si>
-  <si>
-    <t>4.4.9.1 :</t>
-  </si>
-  <si>
-    <t>4.4.10.1 :</t>
-  </si>
-  <si>
-    <t>4.4.10.2 :</t>
-  </si>
-  <si>
-    <t>4.4.10.3 :</t>
-  </si>
-  <si>
-    <t>4.4.11.1 :</t>
-  </si>
-  <si>
-    <t>4.4.11.2 :</t>
-  </si>
-  <si>
-    <t>4.4.11.3 :</t>
-  </si>
-  <si>
-    <t>4.4.11.4 :</t>
-  </si>
-  <si>
-    <t>4.4.12.1 :</t>
-  </si>
-  <si>
-    <t>4.4.12.2 :</t>
-  </si>
-  <si>
-    <t>4.4.12.3 :</t>
-  </si>
-  <si>
-    <t>4.4.12.4 :</t>
-  </si>
-  <si>
-    <t>4.4.12.5 :</t>
-  </si>
-  <si>
-    <t>Prasnam No.4.7</t>
-  </si>
-  <si>
-    <t>Prasnam No.4.1 to 4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.1.1 : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.1.2 :    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.1.3 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.1.4 :     </t>
-  </si>
-  <si>
-    <t>4.5.2.1 :</t>
-  </si>
-  <si>
-    <t>4.5.2.2 :</t>
-  </si>
-  <si>
-    <t>4.5.3.1 :</t>
-  </si>
-  <si>
-    <t>4.5.3.2 :</t>
-  </si>
-  <si>
-    <t>4.5.4.1 :</t>
-  </si>
-  <si>
-    <t>4.5.4.2 :</t>
-  </si>
-  <si>
-    <t>4.5.5.1 :</t>
-  </si>
-  <si>
-    <t>4.5.5.2 :</t>
-  </si>
-  <si>
-    <t>4.5.6.1 :</t>
-  </si>
-  <si>
-    <t>4.5.6.2 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.7.1 :  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.7.2 :    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.8.1 :  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.8.2 :    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.9.1 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.9.2 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.10.1 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.10.2 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.10.3 :    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.10.4 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.10.5 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.11.1 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.11.2 :       </t>
-  </si>
-  <si>
-    <t>4.6.1.1 :</t>
-  </si>
-  <si>
-    <t>4.6.1.2 :</t>
-  </si>
-  <si>
-    <t>4.6.1.3 :</t>
-  </si>
-  <si>
-    <t>4.6.1.4 :</t>
-  </si>
-  <si>
-    <t>4.6.1.5 :</t>
-  </si>
-  <si>
-    <t>4.6.2.1 :</t>
-  </si>
-  <si>
-    <t>4.6.2.2 :</t>
-  </si>
-  <si>
-    <t>4.6.2.3 :</t>
-  </si>
-  <si>
-    <t>4.6.2.4 :</t>
-  </si>
-  <si>
-    <t>4.6.2.5 :</t>
-  </si>
-  <si>
-    <t>4.6.2.6 :</t>
-  </si>
-  <si>
-    <t>4.6.3.1 :</t>
-  </si>
-  <si>
-    <t>4.6.3.2 :</t>
-  </si>
-  <si>
-    <t>4.6.3.3 :</t>
-  </si>
-  <si>
-    <t>4.6.3.4 :</t>
-  </si>
-  <si>
-    <t>4.6.4.1 :</t>
-  </si>
-  <si>
-    <t>4.6.4.2 :</t>
-  </si>
-  <si>
-    <t>4.6.4.3 :</t>
-  </si>
-  <si>
-    <t>4.6.4.4 :</t>
-  </si>
-  <si>
-    <t>4.6.4.5 :</t>
-  </si>
-  <si>
-    <t>4.6.5.1 :</t>
-  </si>
-  <si>
-    <t>4.6.5.2 :</t>
-  </si>
-  <si>
-    <t>4.6.5.3 :</t>
-  </si>
-  <si>
-    <t>4.6.5.4 :</t>
-  </si>
-  <si>
-    <t>4.6.5.5 :</t>
-  </si>
-  <si>
-    <t>4.6.5.6 :</t>
-  </si>
-  <si>
-    <t>4.6.6.1 :</t>
-  </si>
-  <si>
-    <t>4.6.6.2 :</t>
-  </si>
-  <si>
-    <t>4.6.6.3 :</t>
-  </si>
-  <si>
-    <t>4.6.6.4 :</t>
-  </si>
-  <si>
-    <t>4.6.6.5 :</t>
-  </si>
-  <si>
-    <t>4.6.6.6 :</t>
-  </si>
-  <si>
-    <t>4.6.6.7 :</t>
-  </si>
-  <si>
-    <t>4.6.7.1 :</t>
-  </si>
-  <si>
-    <t>4.6.7.2 :</t>
-  </si>
-  <si>
-    <t>4.6.7.3 :</t>
-  </si>
-  <si>
-    <t>4.6.7.4 :</t>
-  </si>
-  <si>
-    <t>4.6.7.5 :</t>
-  </si>
-  <si>
-    <t>4.6.8.1 :</t>
-  </si>
-  <si>
-    <t>4.6.8.2 :</t>
-  </si>
-  <si>
-    <t>4.6.8.3 :</t>
-  </si>
-  <si>
-    <t>4.6.8.4 :</t>
-  </si>
-  <si>
-    <t>4.6.9.1 :</t>
-  </si>
-  <si>
-    <t>4.6.9.2 :</t>
-  </si>
-  <si>
-    <t>4.6.9.3 :</t>
-  </si>
-  <si>
-    <t>4.6.9.4 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.1.1 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.1.2 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.2.1 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.2.2 :        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.3.1 :        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.3.2 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.4.1 :        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.4.2 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.5.1 :        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.5.2 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.6.1 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.6.2 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.7.1 :        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.7.2 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.8.1 :        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.9.1 :        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.10.1 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.10.2 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.11.1 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.11.2 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.12.1 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.12.2 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.12.3 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.13.1 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.13.2 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.13.3 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.13.4 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.13.5 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.14.1 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.14.2 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.14.3 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.14.4 :      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.15.1 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.15.2 :     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.15.3 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.15.4 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.15.5 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.15.6 :       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7.15.7 :       </t>
-  </si>
-  <si>
-    <r>
-      <t>GZy = (B+CZy) |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="BRH Malayalam"/>
-        <family val="4"/>
-      </rPr>
-      <t>D¥eZy = (De+CZy)  ¥öeZy = (öe+CZy) |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DexjpJ = Dexjp CZõ¡e - BjpJ |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="BRH Malayalam"/>
-        <family val="4"/>
-      </rPr>
-      <t xml:space="preserve">gxt¡hõxI=gxt¡hõxiyZy gxt¡-hõxI </t>
+      <t>னி</t>
     </r>
   </si>
 </sst>
@@ -2248,7 +1492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2308,33 +1552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Latha"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Latha"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Latha"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="BRH Malayalam"/>
-      <family val="4"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2349,8 +1566,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Latha"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Latha"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Latha"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2378,6 +1614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2453,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -2472,9 +1714,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2490,36 +1729,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2538,27 +1753,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2900,7 +2109,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
@@ -2935,11 +2144,11 @@
       <c r="L2" s="3">
         <v>53</v>
       </c>
-      <c r="M2" s="28"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -2974,11 +2183,11 @@
       <c r="L3" s="3">
         <v>53</v>
       </c>
-      <c r="M3" s="28"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>11</v>
@@ -3013,11 +2222,11 @@
       <c r="L4" s="3">
         <v>58</v>
       </c>
-      <c r="M4" s="28"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -3052,11 +2261,11 @@
       <c r="L5" s="3">
         <v>57</v>
       </c>
-      <c r="M5" s="28"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>8</v>
@@ -3091,11 +2300,11 @@
       <c r="L6" s="3">
         <v>55</v>
       </c>
-      <c r="M6" s="28"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>7</v>
@@ -3130,11 +2339,11 @@
       <c r="L7" s="3">
         <v>56</v>
       </c>
-      <c r="M7" s="28"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -3169,11 +2378,11 @@
       <c r="L8" s="3">
         <v>57</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3">
         <v>11</v>
@@ -3208,11 +2417,11 @@
       <c r="L9" s="3">
         <v>58</v>
       </c>
-      <c r="M9" s="28"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3">
         <v>12</v>
@@ -3247,11 +2456,11 @@
       <c r="L10" s="3">
         <v>81</v>
       </c>
-      <c r="M10" s="28"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
         <v>8</v>
@@ -3286,11 +2495,11 @@
       <c r="L11" s="3">
         <v>57</v>
       </c>
-      <c r="M11" s="28"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -3325,11 +2534,11 @@
       <c r="L12" s="3">
         <v>56</v>
       </c>
-      <c r="M12" s="28"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -3364,11 +2573,11 @@
       <c r="L13" s="3">
         <v>58</v>
       </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -3403,11 +2612,11 @@
       <c r="L14" s="3">
         <v>29</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3">
         <v>8</v>
@@ -3442,11 +2651,11 @@
       <c r="L15" s="3">
         <v>56</v>
       </c>
-      <c r="M15" s="28"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -3481,11 +2690,11 @@
       <c r="L16" s="3">
         <v>56</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -3520,11 +2729,11 @@
       <c r="L17" s="3">
         <v>53</v>
       </c>
-      <c r="M17" s="28"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3">
         <v>7</v>
@@ -3559,11 +2768,11 @@
       <c r="L18" s="3">
         <v>42</v>
       </c>
-      <c r="M18" s="28"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3">
         <v>5</v>
@@ -3598,11 +2807,11 @@
       <c r="L19" s="3">
         <v>54</v>
       </c>
-      <c r="M19" s="28"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3">
         <v>9</v>
@@ -3637,11 +2846,11 @@
       <c r="L20" s="3">
         <v>57</v>
       </c>
-      <c r="M20" s="28"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -3676,11 +2885,11 @@
       <c r="L21" s="3">
         <v>55</v>
       </c>
-      <c r="M21" s="28"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -3715,11 +2924,11 @@
       <c r="L22" s="3">
         <v>59</v>
       </c>
-      <c r="M22" s="28"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -3754,11 +2963,11 @@
       <c r="L23" s="3">
         <v>53</v>
       </c>
-      <c r="M23" s="28"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
@@ -3766,10 +2975,10 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
-      <c r="D24" s="38">
-        <v>0</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="23">
         <v>0</v>
       </c>
       <c r="F24" s="3">
@@ -3793,11 +3002,11 @@
       <c r="L24" s="3">
         <v>58</v>
       </c>
-      <c r="M24" s="28"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
@@ -3832,11 +3041,11 @@
       <c r="L25" s="3">
         <v>73</v>
       </c>
-      <c r="M25" s="28"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -3871,11 +3080,11 @@
       <c r="L26" s="3">
         <v>53</v>
       </c>
-      <c r="M26" s="28"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3">
         <v>13</v>
@@ -3910,11 +3119,11 @@
       <c r="L27" s="3">
         <v>61</v>
       </c>
-      <c r="M27" s="28"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3">
         <v>10</v>
@@ -3949,11 +3158,11 @@
       <c r="L28" s="3">
         <v>60</v>
       </c>
-      <c r="M28" s="28"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
@@ -3988,11 +3197,11 @@
       <c r="L29" s="3">
         <v>37</v>
       </c>
-      <c r="M29" s="28"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
@@ -4027,11 +3236,11 @@
       <c r="L30" s="3">
         <v>56</v>
       </c>
-      <c r="M30" s="28"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -4066,11 +3275,11 @@
       <c r="L31" s="3">
         <v>55</v>
       </c>
-      <c r="M31" s="28"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -4105,11 +3314,11 @@
       <c r="L32" s="3">
         <v>52</v>
       </c>
-      <c r="M32" s="28"/>
+      <c r="M32" s="19"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3">
         <v>11</v>
@@ -4144,11 +3353,11 @@
       <c r="L33" s="3">
         <v>61</v>
       </c>
-      <c r="M33" s="28"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3">
         <v>5</v>
@@ -4183,11 +3392,11 @@
       <c r="L34" s="3">
         <v>59</v>
       </c>
-      <c r="M34" s="28"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -4222,11 +3431,11 @@
       <c r="L35" s="3">
         <v>35</v>
       </c>
-      <c r="M35" s="28"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3">
         <v>8</v>
@@ -4261,11 +3470,11 @@
       <c r="L36" s="3">
         <v>58</v>
       </c>
-      <c r="M36" s="28"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -4300,11 +3509,11 @@
       <c r="L37" s="3">
         <v>54</v>
       </c>
-      <c r="M37" s="28"/>
+      <c r="M37" s="19"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
         <v>6</v>
@@ -4339,11 +3548,11 @@
       <c r="L38" s="3">
         <v>77</v>
       </c>
-      <c r="M38" s="28"/>
+      <c r="M38" s="19"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -4378,11 +3587,11 @@
       <c r="L39" s="3">
         <v>54</v>
       </c>
-      <c r="M39" s="28"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3">
         <v>8</v>
@@ -4417,11 +3626,11 @@
       <c r="L40" s="3">
         <v>57</v>
       </c>
-      <c r="M40" s="28"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3">
         <v>6</v>
@@ -4456,11 +3665,11 @@
       <c r="L41" s="3">
         <v>56</v>
       </c>
-      <c r="M41" s="28"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3">
         <v>7</v>
@@ -4495,11 +3704,11 @@
       <c r="L42" s="3">
         <v>57</v>
       </c>
-      <c r="M42" s="28"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3">
         <v>5</v>
@@ -4534,11 +3743,11 @@
       <c r="L43" s="3">
         <v>43</v>
       </c>
-      <c r="M43" s="28"/>
+      <c r="M43" s="19"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3">
         <v>5</v>
@@ -4573,11 +3782,11 @@
       <c r="L44" s="3">
         <v>53</v>
       </c>
-      <c r="M44" s="28"/>
+      <c r="M44" s="19"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
@@ -4612,11 +3821,11 @@
       <c r="L45" s="3">
         <v>54</v>
       </c>
-      <c r="M45" s="28"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B46" s="3">
         <v>5</v>
@@ -4651,11 +3860,11 @@
       <c r="L46" s="3">
         <v>57</v>
       </c>
-      <c r="M46" s="28"/>
+      <c r="M46" s="19"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
@@ -4690,62 +3899,62 @@
       <c r="L47" s="3">
         <v>64</v>
       </c>
-      <c r="M47" s="28"/>
+      <c r="M47" s="19"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="26">
+      <c r="A48" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="17">
         <f>SUM(B2:B47)</f>
         <v>290</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="17">
         <f t="shared" ref="C48:L48" si="0">SUM(C2:C47)</f>
         <v>52</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="17">
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="17">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="17">
         <f t="shared" si="0"/>
         <v>1751</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="17">
         <f t="shared" si="0"/>
         <v>2293</v>
       </c>
-      <c r="L48" s="26">
+      <c r="L48" s="17">
         <f t="shared" si="0"/>
         <v>2557</v>
       </c>
-      <c r="M48" s="28"/>
+      <c r="M48" s="19"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="E49" t="s">
         <v>12</v>
       </c>
@@ -4757,8 +3966,8 @@
         <f>B48-C48</f>
         <v>238</v>
       </c>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
@@ -4777,7 +3986,7 @@
       <c r="E51" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="25">
         <v>23</v>
       </c>
       <c r="J51">
@@ -4789,7 +3998,7 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="25">
         <v>9</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4816,7 +4025,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F55">
         <f>K48-F54</f>
@@ -4912,7 +4121,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3">
         <v>5</v>
@@ -4950,7 +4159,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3">
         <v>6</v>
@@ -4988,7 +4197,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -5026,7 +4235,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -5064,7 +4273,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3">
         <v>15</v>
@@ -5102,7 +4311,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
@@ -5140,7 +4349,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -5178,7 +4387,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -5216,7 +4425,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -5254,7 +4463,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B11" s="3">
         <v>13</v>
@@ -5292,7 +4501,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -5330,7 +4539,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
@@ -5368,7 +4577,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
@@ -5406,7 +4615,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -5444,7 +4653,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
@@ -5482,7 +4691,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3">
         <v>10</v>
@@ -5520,7 +4729,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -5558,7 +4767,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B19" s="3">
         <v>8</v>
@@ -5596,7 +4805,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3">
         <v>8</v>
@@ -5634,7 +4843,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B21" s="3">
         <v>8</v>
@@ -5672,7 +4881,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3">
         <v>6</v>
@@ -5710,7 +4919,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B23" s="3">
         <v>7</v>
@@ -5748,7 +4957,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3">
         <v>14</v>
@@ -5786,7 +4995,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B25" s="3">
         <v>6</v>
@@ -5824,7 +5033,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
@@ -5862,7 +5071,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -5900,7 +5109,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B28" s="3">
         <v>10</v>
@@ -5938,7 +5147,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B29" s="3">
         <v>10</v>
@@ -5976,7 +5185,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -6014,7 +5223,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -6052,7 +5261,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B32" s="3">
         <v>15</v>
@@ -6090,7 +5299,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
@@ -6128,7 +5337,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
@@ -6166,7 +5375,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
@@ -6204,7 +5413,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -6242,7 +5451,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B37" s="3">
         <v>10</v>
@@ -6280,7 +5489,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B38" s="3">
         <v>7</v>
@@ -6318,7 +5527,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -6356,7 +5565,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B40" s="3">
         <v>5</v>
@@ -6394,7 +5603,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
@@ -6432,7 +5641,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
@@ -6470,7 +5679,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B43" s="3">
         <v>7</v>
@@ -6508,7 +5717,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B44" s="3">
         <v>9</v>
@@ -6546,7 +5755,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B45" s="3">
         <v>6</v>
@@ -6584,7 +5793,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
@@ -6622,7 +5831,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B47" s="3">
         <v>6</v>
@@ -6660,7 +5869,7 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B48" s="3">
         <v>10</v>
@@ -6698,7 +5907,7 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B49" s="3">
         <v>8</v>
@@ -6735,56 +5944,56 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+      <c r="A50" s="20">
         <v>48</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="20">
         <f>SUM(B2:B49)</f>
         <v>317</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="20">
         <f t="shared" ref="C50:L50" si="0">SUM(C2:C49)</f>
         <v>65</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="20">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="20">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="20">
         <f t="shared" si="0"/>
         <v>1921</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="20">
         <f t="shared" si="0"/>
         <v>2498</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L50" s="20">
         <f t="shared" si="0"/>
         <v>2768</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D51" s="28"/>
+      <c r="D51" s="19"/>
       <c r="E51" t="s">
         <v>12</v>
       </c>
@@ -6796,7 +6005,7 @@
         <f>B50-C50</f>
         <v>252</v>
       </c>
-      <c r="K51" s="28"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
@@ -6854,7 +6063,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F57">
         <f>K50-F56</f>
@@ -6951,7 +6160,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -6989,7 +6198,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3">
         <v>17</v>
@@ -7027,7 +6236,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3">
         <v>14</v>
@@ -7065,7 +6274,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
@@ -7103,7 +6312,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3">
         <v>9</v>
@@ -7141,7 +6350,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
@@ -7179,7 +6388,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3">
         <v>9</v>
@@ -7217,7 +6426,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B9" s="3">
         <v>9</v>
@@ -7255,7 +6464,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3">
         <v>18</v>
@@ -7293,7 +6502,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3">
         <v>16</v>
@@ -7331,7 +6540,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
@@ -7369,7 +6578,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -7407,7 +6616,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -7445,7 +6654,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -7483,7 +6692,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3">
         <v>23</v>
@@ -7521,7 +6730,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3">
         <v>11</v>
@@ -7559,7 +6768,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B18" s="3">
         <v>13</v>
@@ -7597,7 +6806,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -7635,7 +6844,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -7673,7 +6882,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B21" s="3">
         <v>9</v>
@@ -7711,7 +6920,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -7749,7 +6958,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3">
         <v>8</v>
@@ -7787,7 +6996,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
@@ -7825,7 +7034,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B25" s="3">
         <v>9</v>
@@ -7863,7 +7072,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
@@ -7901,7 +7110,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
@@ -7939,7 +7148,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B28" s="3">
         <v>10</v>
@@ -7977,7 +7186,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B29" s="3">
         <v>7</v>
@@ -8015,7 +7224,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B30" s="3">
         <v>7</v>
@@ -8053,7 +7262,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B31" s="3">
         <v>8</v>
@@ -8091,7 +7300,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B32" s="3">
         <v>8</v>
@@ -8129,7 +7338,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B33" s="3">
         <v>7</v>
@@ -8167,7 +7376,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B34" s="3">
         <v>11</v>
@@ -8205,7 +7414,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B35" s="3">
         <v>7</v>
@@ -8243,7 +7452,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
@@ -8281,7 +7490,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B37" s="3">
         <v>8</v>
@@ -8318,40 +7527,40 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="29">
+      <c r="A38" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="20">
         <v>356</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="20">
         <v>29</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="20">
         <v>25</v>
       </c>
-      <c r="E38" s="29">
-        <v>1</v>
-      </c>
-      <c r="F38" s="29">
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20">
         <v>16</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="20">
         <v>67</v>
       </c>
-      <c r="H38" s="29">
-        <v>0</v>
-      </c>
-      <c r="I38" s="29">
+      <c r="H38" s="20">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20">
         <v>2</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="20">
         <v>1377</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="20">
         <v>1844</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="20">
         <v>2195</v>
       </c>
     </row>
@@ -8424,7 +7633,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F45">
         <f>K38-F44</f>
@@ -8521,7 +7730,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -8559,7 +7768,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
@@ -8597,7 +7806,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B4" s="3">
         <v>14</v>
@@ -8635,7 +7844,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B5" s="3">
         <v>11</v>
@@ -8673,7 +7882,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B6" s="3">
         <v>11</v>
@@ -8711,7 +7920,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B7" s="3">
         <v>9</v>
@@ -8749,7 +7958,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B8" s="3">
         <v>20</v>
@@ -8787,7 +7996,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B9" s="3">
         <v>15</v>
@@ -8825,7 +8034,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -8863,7 +8072,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
@@ -8901,7 +8110,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
@@ -8939,7 +8148,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -8977,7 +8186,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3">
         <v>6</v>
@@ -9015,7 +8224,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
@@ -9053,7 +8262,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
@@ -9091,7 +8300,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -9129,7 +8338,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B18" s="3">
         <v>10</v>
@@ -9167,7 +8376,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B19" s="3">
         <v>11</v>
@@ -9205,7 +8414,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
@@ -9243,7 +8452,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B21" s="3">
         <v>14</v>
@@ -9281,7 +8490,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B22" s="3">
         <v>12</v>
@@ -9319,7 +8528,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B23" s="3">
         <v>12</v>
@@ -9357,7 +8566,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -9395,7 +8604,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B25" s="3">
         <v>16</v>
@@ -9433,7 +8642,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B26" s="3">
         <v>35</v>
@@ -9471,7 +8680,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -9509,7 +8718,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -9547,7 +8756,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
@@ -9585,7 +8794,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -9623,7 +8832,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
@@ -9661,7 +8870,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -9699,7 +8908,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B33" s="3">
         <v>11</v>
@@ -9737,7 +8946,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B34" s="3">
         <v>10</v>
@@ -9775,7 +8984,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B35" s="3">
         <v>8</v>
@@ -9813,7 +9022,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B36" s="3">
         <v>14</v>
@@ -9851,7 +9060,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B37" s="3">
         <v>9</v>
@@ -9889,7 +9098,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B38" s="3">
         <v>11</v>
@@ -9926,56 +9135,56 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="16">
         <v>37</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="20">
         <f>SUM(B2:B38)</f>
         <v>356</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="20">
         <f t="shared" ref="C39:L39" si="0">SUM(C2:C38)</f>
         <v>17</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="20">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="20">
         <f t="shared" si="0"/>
         <v>1425</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="20">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="20">
         <f t="shared" si="0"/>
         <v>2248</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="19"/>
       <c r="E40" t="s">
         <v>12</v>
       </c>
@@ -10044,7 +9253,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F46">
         <f>K39-F45</f>
@@ -10141,7 +9350,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3">
         <v>6</v>
@@ -10179,7 +9388,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -10217,7 +9426,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
@@ -10256,7 +9465,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3">
         <v>14</v>
@@ -10294,7 +9503,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3">
         <v>8</v>
@@ -10332,7 +9541,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -10370,7 +9579,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B8" s="3">
         <v>14</v>
@@ -10408,7 +9617,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
@@ -10446,7 +9655,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -10484,7 +9693,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B11" s="3">
         <v>12</v>
@@ -10522,7 +9731,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -10560,7 +9769,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -10598,7 +9807,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B14" s="3">
         <v>6</v>
@@ -10636,7 +9845,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -10674,7 +9883,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -10712,7 +9921,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -10750,7 +9959,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B18" s="3">
         <v>9</v>
@@ -10788,7 +9997,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B19" s="3">
         <v>5</v>
@@ -10826,7 +10035,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
@@ -10864,7 +10073,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B21" s="3">
         <v>9</v>
@@ -10902,7 +10111,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -10940,7 +10149,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
@@ -10978,7 +10187,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -11016,7 +10225,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
@@ -11054,7 +10263,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -11092,7 +10301,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B27" s="3">
         <v>13</v>
@@ -11130,7 +10339,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -11167,50 +10376,50 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="20">
         <f t="shared" ref="B29:L29" si="0">SUM(B2:B28)</f>
         <v>197</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="20">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="20">
         <f t="shared" si="0"/>
         <v>975</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="20">
         <f t="shared" si="0"/>
         <v>1234</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="20">
         <f t="shared" si="0"/>
         <v>1417</v>
       </c>
@@ -11284,7 +10493,7 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F36">
         <f>K29-F35</f>
@@ -11323,8 +10532,8 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49:J58"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11381,7 +10590,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -11419,7 +10628,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -11457,7 +10666,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
@@ -11495,7 +10704,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
@@ -11533,7 +10742,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B6" s="3">
         <v>11</v>
@@ -11571,7 +10780,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B7" s="3">
         <v>9</v>
@@ -11609,7 +10818,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -11647,7 +10856,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -11685,7 +10894,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -11723,7 +10932,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B11" s="3">
         <v>8</v>
@@ -11761,7 +10970,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B12" s="3">
         <v>8</v>
@@ -11799,7 +11008,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
@@ -11837,7 +11046,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
@@ -11875,7 +11084,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B15" s="3">
         <v>9</v>
@@ -11913,7 +11122,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -11951,7 +11160,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
@@ -11989,7 +11198,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B18" s="3">
         <v>15</v>
@@ -12027,7 +11236,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B19" s="3">
         <v>8</v>
@@ -12065,7 +11274,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B20" s="3">
         <v>6</v>
@@ -12103,7 +11312,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -12141,7 +11350,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -12179,7 +11388,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B23" s="3">
         <v>9</v>
@@ -12217,7 +11426,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
@@ -12255,7 +11464,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
@@ -12293,7 +11502,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
@@ -12331,7 +11540,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B27" s="3">
         <v>14</v>
@@ -12369,7 +11578,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
@@ -12407,16 +11616,16 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
+        <v>260</v>
+      </c>
+      <c r="B29" s="26">
+        <v>7</v>
       </c>
       <c r="C29" s="3">
         <v>4</v>
       </c>
-      <c r="D29" s="3">
-        <v>5</v>
+      <c r="D29" s="26">
+        <v>6</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -12445,7 +11654,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B30" s="3">
         <v>16</v>
@@ -12483,7 +11692,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
@@ -12521,7 +11730,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B32" s="3">
         <v>11</v>
@@ -12559,7 +11768,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
@@ -12597,7 +11806,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
@@ -12635,7 +11844,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -12673,7 +11882,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -12711,7 +11920,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -12749,7 +11958,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B38" s="3">
         <v>9</v>
@@ -12787,7 +11996,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
@@ -12825,7 +12034,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B40" s="3">
         <v>9</v>
@@ -12863,7 +12072,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B41" s="3">
         <v>13</v>
@@ -12901,7 +12110,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B42" s="3">
         <v>6</v>
@@ -12939,7 +12148,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B43" s="3">
         <v>7</v>
@@ -12977,7 +12186,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B44" s="3">
         <v>9</v>
@@ -13015,7 +12224,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B45" s="3">
         <v>7</v>
@@ -13053,7 +12262,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B46" s="3">
         <v>8</v>
@@ -13091,7 +12300,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B47" s="3">
         <v>10</v>
@@ -13128,50 +12337,50 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="29">
+      <c r="A48" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="20">
         <f>SUM(B2:B47)</f>
-        <v>373</v>
-      </c>
-      <c r="C48" s="29">
+        <v>372</v>
+      </c>
+      <c r="C48" s="20">
         <f t="shared" ref="C48:L48" si="0">SUM(C2:C47)</f>
         <v>50</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="20">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E48" s="29">
+        <v>27</v>
+      </c>
+      <c r="E48" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="20">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="20">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="20">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J48" s="29">
+      <c r="J48" s="20">
         <f t="shared" si="0"/>
         <v>1718</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="20">
         <f t="shared" si="0"/>
         <v>2331</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L48" s="20">
         <f t="shared" si="0"/>
         <v>2676</v>
       </c>
@@ -13186,7 +12395,7 @@
       </c>
       <c r="J49">
         <f>B48-C48</f>
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.25">
@@ -13195,11 +12404,11 @@
       </c>
       <c r="F50">
         <f>B48</f>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J50">
         <f>D48-E48</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.25">
@@ -13219,7 +12428,7 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>16</v>
@@ -13245,7 +12454,7 @@
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F55">
         <f>K48-F54</f>
@@ -13342,7 +12551,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B2" s="3">
         <v>6</v>
@@ -13380,7 +12589,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -13418,7 +12627,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -13456,7 +12665,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -13494,7 +12703,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -13532,7 +12741,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -13570,7 +12779,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -13608,7 +12817,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -13646,7 +12855,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -13684,7 +12893,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -13722,7 +12931,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -13760,7 +12969,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -13798,7 +13007,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B14" s="3">
         <v>8</v>
@@ -13836,7 +13045,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B15" s="3">
         <v>6</v>
@@ -13874,7 +13083,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -13912,7 +13121,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -13950,7 +13159,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B18" s="3">
         <v>9</v>
@@ -13988,7 +13197,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
@@ -14026,7 +13235,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B20" s="3">
         <v>11</v>
@@ -14064,7 +13273,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B21" s="3">
         <v>9</v>
@@ -14102,7 +13311,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B22" s="3">
         <v>7</v>
@@ -14140,7 +13349,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B23" s="3">
         <v>7</v>
@@ -14178,7 +13387,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B24" s="3">
         <v>10</v>
@@ -14216,7 +13425,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B25" s="3">
         <v>9</v>
@@ -14254,7 +13463,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -14292,7 +13501,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
@@ -14330,7 +13539,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B28" s="3">
         <v>9</v>
@@ -14368,7 +13577,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -14406,7 +13615,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B30" s="3">
         <v>7</v>
@@ -14444,7 +13653,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B31" s="3">
         <v>5</v>
@@ -14482,7 +13691,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B32" s="3">
         <v>9</v>
@@ -14520,7 +13729,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
@@ -14558,7 +13767,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B34" s="3">
         <v>10</v>
@@ -14596,7 +13805,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B35" s="3">
         <v>8</v>
@@ -14634,7 +13843,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -14672,7 +13881,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -14710,7 +13919,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
@@ -14748,7 +13957,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -14786,7 +13995,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
@@ -14823,50 +14032,50 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="16">
         <v>39</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="20">
         <f t="shared" ref="B41:L41" si="0">SUM(B2:B40)</f>
         <v>206</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="20">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="20">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="20">
         <f t="shared" si="0"/>
         <v>1692</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="20">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="L41" s="29">
+      <c r="L41" s="20">
         <f t="shared" si="0"/>
         <v>2210</v>
       </c>
@@ -14940,7 +14149,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F48">
         <f>K41-F47</f>
@@ -14976,57 +14185,55 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L31"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="30" customWidth="1"/>
-    <col min="9" max="11" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="30" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="25.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="21" customWidth="1"/>
+    <col min="8" max="10" width="7.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E1" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="89.25" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
@@ -15034,575 +14241,530 @@
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="D3" s="12">
+        <v>1825</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1982</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1396</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1463</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1011</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1782</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1730</v>
+      </c>
+      <c r="K3" s="12">
+        <f>SUM(D3:J3)</f>
+        <v>11189</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12">
+        <v>146</v>
+      </c>
+      <c r="E4" s="12">
+        <v>178</v>
+      </c>
+      <c r="F4" s="12">
+        <v>67</v>
+      </c>
+      <c r="G4" s="12">
+        <v>45</v>
+      </c>
+      <c r="H4" s="12">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12">
+        <v>150</v>
+      </c>
+      <c r="J4" s="12">
+        <v>51</v>
+      </c>
+      <c r="K4" s="12">
+        <f>SUM(D4:J4)</f>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>290</v>
+      </c>
+      <c r="E5" s="12">
+        <v>317</v>
+      </c>
+      <c r="F5" s="12">
+        <v>356</v>
+      </c>
+      <c r="G5" s="12">
+        <v>356</v>
+      </c>
+      <c r="H5" s="12">
+        <v>197</v>
+      </c>
+      <c r="I5" s="27">
+        <v>372</v>
+      </c>
+      <c r="J5" s="12">
+        <v>206</v>
+      </c>
+      <c r="K5" s="12">
+        <f>SUM(D5:J5)</f>
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>23</v>
+      </c>
+      <c r="E6" s="12">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12">
+        <v>15</v>
+      </c>
+      <c r="G6" s="12">
+        <v>18</v>
+      </c>
+      <c r="H6" s="12">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12">
+        <v>18</v>
+      </c>
+      <c r="J6" s="12">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12">
+        <f>SUM(D6:J6)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1825</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1982</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1396</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1463</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1011</v>
-      </c>
-      <c r="J3" s="13">
-        <v>1782</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1730</v>
-      </c>
-      <c r="L3" s="13">
-        <f>SUM(E3:K3)</f>
-        <v>11189</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="13">
-        <v>146</v>
-      </c>
-      <c r="F4" s="13">
-        <v>178</v>
-      </c>
-      <c r="G4" s="13">
-        <v>67</v>
-      </c>
-      <c r="H4" s="13">
-        <v>45</v>
-      </c>
-      <c r="I4" s="13">
-        <v>21</v>
-      </c>
-      <c r="J4" s="13">
-        <v>150</v>
-      </c>
-      <c r="K4" s="13">
-        <v>51</v>
-      </c>
-      <c r="L4" s="13">
-        <f>SUM(E4:K4)</f>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="13">
-        <v>290</v>
-      </c>
-      <c r="F5" s="13">
-        <v>317</v>
-      </c>
-      <c r="G5" s="13">
-        <v>356</v>
-      </c>
-      <c r="H5" s="13">
-        <v>356</v>
-      </c>
-      <c r="I5" s="13">
-        <v>197</v>
-      </c>
-      <c r="J5" s="13">
-        <v>373</v>
-      </c>
-      <c r="K5" s="13">
-        <v>206</v>
-      </c>
-      <c r="L5" s="13">
-        <f>SUM(E5:K5)</f>
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="55.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="13">
-        <v>23</v>
-      </c>
-      <c r="F6" s="13">
-        <v>14</v>
-      </c>
-      <c r="G6" s="13">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13">
-        <v>18</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="D7" s="12">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12">
         <v>5</v>
       </c>
-      <c r="J6" s="13">
-        <v>18</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
         <v>9</v>
       </c>
-      <c r="L6" s="13">
-        <f>SUM(E6:K6)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="54" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="13">
-        <v>9</v>
-      </c>
-      <c r="F7" s="13">
-        <v>7</v>
-      </c>
-      <c r="G7" s="13">
-        <v>10</v>
-      </c>
-      <c r="H7" s="13">
-        <v>5</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>8</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="J7" s="12">
         <v>12</v>
       </c>
-      <c r="L7" s="13">
-        <f>SUM(E7:K7)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="17">
-        <f t="shared" ref="E8:K8" si="0">SUM(E3:E7)</f>
+      <c r="K7" s="12">
+        <f>SUM(D7:J7)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:J8" si="0">SUM(D3:D7)</f>
         <v>2293</v>
       </c>
-      <c r="F8" s="17">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>2498</v>
       </c>
-      <c r="G8" s="17">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>1844</v>
       </c>
-      <c r="H8" s="17">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="I8" s="17">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>1234</v>
       </c>
-      <c r="J8" s="17">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>2331</v>
       </c>
-      <c r="K8" s="17">
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="L8" s="17">
-        <f t="shared" ref="L8" si="1">SUM(L3:L7)</f>
+      <c r="K8" s="14">
+        <f t="shared" ref="K8" si="1">SUM(K3:K7)</f>
         <v>14095</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E9" s="31"/>
-      <c r="L9" s="27">
-        <f>SUM(E8:K8)-L8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="22"/>
+      <c r="K9" s="18">
+        <f>SUM(D8:J8)-K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="102" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="12">
+        <v>1825</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1982</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1396</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1463</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1011</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1782</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1730</v>
+      </c>
+      <c r="K14" s="12">
+        <f>SUM(D14:J14)</f>
+        <v>11189</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12">
+        <v>146</v>
+      </c>
+      <c r="E15" s="12">
+        <v>178</v>
+      </c>
+      <c r="F15" s="12">
+        <v>67</v>
+      </c>
+      <c r="G15" s="12">
+        <v>45</v>
+      </c>
+      <c r="H15" s="12">
         <v>21</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1825</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1982</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1396</v>
-      </c>
-      <c r="H14" s="13">
-        <v>1463</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1011</v>
-      </c>
-      <c r="J14" s="13">
-        <v>1782</v>
-      </c>
-      <c r="K14" s="13">
-        <v>1730</v>
-      </c>
-      <c r="L14" s="13">
-        <f>SUM(E14:K14)</f>
-        <v>11189</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="57" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="13">
-        <v>146</v>
-      </c>
-      <c r="F15" s="13">
-        <v>178</v>
-      </c>
-      <c r="G15" s="13">
-        <v>67</v>
-      </c>
-      <c r="H15" s="13">
-        <v>45</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
+        <v>150</v>
+      </c>
+      <c r="J15" s="12">
+        <v>51</v>
+      </c>
+      <c r="K15" s="12">
+        <f>SUM(D15:J15)</f>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>290</v>
+      </c>
+      <c r="E16" s="12">
+        <v>317</v>
+      </c>
+      <c r="F16" s="12">
+        <v>356</v>
+      </c>
+      <c r="G16" s="12">
+        <v>356</v>
+      </c>
+      <c r="H16" s="12">
+        <v>197</v>
+      </c>
+      <c r="I16" s="12">
+        <v>372</v>
+      </c>
+      <c r="J16" s="12">
+        <v>206</v>
+      </c>
+      <c r="K16" s="12">
+        <f>SUM(D16:J16)</f>
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12">
+        <v>23</v>
+      </c>
+      <c r="E17" s="12">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12">
+        <v>18</v>
+      </c>
+      <c r="H17" s="12">
+        <v>5</v>
+      </c>
+      <c r="I17" s="12">
+        <v>18</v>
+      </c>
+      <c r="J17" s="12">
+        <v>9</v>
+      </c>
+      <c r="K17" s="12">
+        <f>SUM(D17:J17)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="13">
-        <v>150</v>
-      </c>
-      <c r="K15" s="13">
-        <v>51</v>
-      </c>
-      <c r="L15" s="13">
-        <f>SUM(E15:K15)</f>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="13">
-        <v>290</v>
-      </c>
-      <c r="F16" s="13">
-        <v>317</v>
-      </c>
-      <c r="G16" s="13">
-        <v>356</v>
-      </c>
-      <c r="H16" s="13">
-        <v>356</v>
-      </c>
-      <c r="I16" s="13">
-        <v>197</v>
-      </c>
-      <c r="J16" s="13">
-        <v>373</v>
-      </c>
-      <c r="K16" s="13">
-        <v>206</v>
-      </c>
-      <c r="L16" s="13">
-        <f>SUM(E16:K16)</f>
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="13">
-        <v>23</v>
-      </c>
-      <c r="F17" s="13">
-        <v>14</v>
-      </c>
-      <c r="G17" s="13">
-        <v>15</v>
-      </c>
-      <c r="H17" s="13">
-        <v>18</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="D18" s="12">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
         <v>5</v>
       </c>
-      <c r="J17" s="13">
-        <v>18</v>
-      </c>
-      <c r="K17" s="13">
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
         <v>9</v>
       </c>
-      <c r="L17" s="13">
-        <f>SUM(E17:K17)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="13">
-        <v>9</v>
-      </c>
-      <c r="F18" s="13">
-        <v>7</v>
-      </c>
-      <c r="G18" s="13">
-        <v>10</v>
-      </c>
-      <c r="H18" s="13">
-        <v>5</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="13">
-        <v>8</v>
-      </c>
-      <c r="K18" s="13">
+      <c r="J18" s="12">
         <v>12</v>
       </c>
-      <c r="L18" s="13">
-        <f>SUM(E18:K18)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="17">
-        <f>SUM(E14:E18)</f>
+      <c r="K18" s="12">
+        <f>SUM(D18:J18)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14">
+        <f>SUM(D14:D18)</f>
         <v>2293</v>
       </c>
-      <c r="F19" s="17">
-        <f t="shared" ref="F19:L19" si="2">SUM(F14:F18)</f>
+      <c r="E19" s="14">
+        <f t="shared" ref="E19:K19" si="2">SUM(E14:E18)</f>
         <v>2498</v>
       </c>
-      <c r="G19" s="17">
+      <c r="F19" s="14">
         <f t="shared" si="2"/>
         <v>1844</v>
       </c>
-      <c r="H19" s="17">
+      <c r="G19" s="14">
         <f t="shared" si="2"/>
         <v>1887</v>
       </c>
-      <c r="I19" s="17">
+      <c r="H19" s="14">
         <f t="shared" si="2"/>
         <v>1234</v>
       </c>
-      <c r="J19" s="17">
+      <c r="I19" s="14">
         <f t="shared" si="2"/>
         <v>2331</v>
       </c>
-      <c r="K19" s="17">
+      <c r="J19" s="14">
         <f t="shared" si="2"/>
         <v>2008</v>
       </c>
-      <c r="L19" s="17">
+      <c r="K19" s="14">
         <f t="shared" si="2"/>
         <v>14095</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="D20" s="37"/>
-      <c r="L20" s="27">
-        <f>SUM(E19:K19)-L19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="18">
+        <f>SUM(D19:J19)-K19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="102" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
@@ -15610,253 +14772,232 @@
       <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="24.75" x14ac:dyDescent="0.6">
+      <c r="B25" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="33" x14ac:dyDescent="0.4">
-      <c r="B25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="12">
+        <v>1825</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1982</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1396</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1463</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1011</v>
+      </c>
+      <c r="I25" s="12">
+        <v>1782</v>
+      </c>
+      <c r="J25" s="12">
+        <v>1730</v>
+      </c>
+      <c r="K25" s="12">
+        <f>SUM(D25:J25)</f>
+        <v>11189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="24.75" x14ac:dyDescent="0.6">
+      <c r="B26" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="12">
+        <v>146</v>
+      </c>
+      <c r="E26" s="12">
+        <v>178</v>
+      </c>
+      <c r="F26" s="12">
+        <v>67</v>
+      </c>
+      <c r="G26" s="12">
+        <v>45</v>
+      </c>
+      <c r="H26" s="12">
         <v>21</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="13">
-        <v>1825</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1982</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1396</v>
-      </c>
-      <c r="H25" s="13">
-        <v>1463</v>
-      </c>
-      <c r="I25" s="13">
-        <v>1011</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1782</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1730</v>
-      </c>
-      <c r="L25" s="13">
-        <f>SUM(E25:K25)</f>
-        <v>11189</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="82.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="13">
-        <v>146</v>
-      </c>
-      <c r="F26" s="13">
-        <v>178</v>
-      </c>
-      <c r="G26" s="13">
-        <v>67</v>
-      </c>
-      <c r="H26" s="13">
-        <v>45</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
+        <v>150</v>
+      </c>
+      <c r="J26" s="12">
+        <v>51</v>
+      </c>
+      <c r="K26" s="12">
+        <f>SUM(D26:J26)</f>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="24.75" x14ac:dyDescent="0.6">
+      <c r="B27" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>290</v>
+      </c>
+      <c r="E27" s="12">
+        <v>317</v>
+      </c>
+      <c r="F27" s="12">
+        <v>356</v>
+      </c>
+      <c r="G27" s="12">
+        <v>356</v>
+      </c>
+      <c r="H27" s="12">
+        <v>197</v>
+      </c>
+      <c r="I27" s="12">
+        <v>372</v>
+      </c>
+      <c r="J27" s="12">
+        <v>206</v>
+      </c>
+      <c r="K27" s="12">
+        <f>SUM(D27:J27)</f>
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="24.75" x14ac:dyDescent="0.6">
+      <c r="B28" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="12">
+        <v>23</v>
+      </c>
+      <c r="E28" s="12">
+        <v>14</v>
+      </c>
+      <c r="F28" s="12">
+        <v>15</v>
+      </c>
+      <c r="G28" s="12">
+        <v>18</v>
+      </c>
+      <c r="H28" s="12">
+        <v>5</v>
+      </c>
+      <c r="I28" s="12">
+        <v>18</v>
+      </c>
+      <c r="J28" s="12">
+        <v>9</v>
+      </c>
+      <c r="K28" s="12">
+        <f>SUM(D28:J28)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="49.5" x14ac:dyDescent="0.6">
+      <c r="B29" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="13">
-        <v>150</v>
-      </c>
-      <c r="K26" s="13">
-        <v>51</v>
-      </c>
-      <c r="L26" s="13">
-        <f>SUM(E26:K26)</f>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="132" x14ac:dyDescent="0.4">
-      <c r="B27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="13">
-        <v>290</v>
-      </c>
-      <c r="F27" s="13">
-        <v>317</v>
-      </c>
-      <c r="G27" s="13">
-        <v>356</v>
-      </c>
-      <c r="H27" s="13">
-        <v>356</v>
-      </c>
-      <c r="I27" s="13">
-        <v>197</v>
-      </c>
-      <c r="J27" s="13">
-        <v>373</v>
-      </c>
-      <c r="K27" s="13">
-        <v>206</v>
-      </c>
-      <c r="L27" s="13">
-        <f>SUM(E27:K27)</f>
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="115.5" x14ac:dyDescent="0.4">
-      <c r="B28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="13">
-        <v>23</v>
-      </c>
-      <c r="F28" s="13">
-        <v>14</v>
-      </c>
-      <c r="G28" s="13">
-        <v>15</v>
-      </c>
-      <c r="H28" s="13">
-        <v>18</v>
-      </c>
-      <c r="I28" s="13">
+      <c r="D29" s="12">
+        <v>9</v>
+      </c>
+      <c r="E29" s="12">
+        <v>7</v>
+      </c>
+      <c r="F29" s="12">
+        <v>10</v>
+      </c>
+      <c r="G29" s="12">
         <v>5</v>
       </c>
-      <c r="J28" s="13">
-        <v>18</v>
-      </c>
-      <c r="K28" s="13">
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
         <v>9</v>
       </c>
-      <c r="L28" s="13">
-        <f>SUM(E28:K28)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="132" x14ac:dyDescent="0.4">
-      <c r="B29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="13">
-        <v>9</v>
-      </c>
-      <c r="F29" s="13">
-        <v>7</v>
-      </c>
-      <c r="G29" s="13">
-        <v>10</v>
-      </c>
-      <c r="H29" s="13">
-        <v>5</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <v>8</v>
-      </c>
-      <c r="K29" s="13">
+      <c r="J29" s="12">
         <v>12</v>
       </c>
-      <c r="L29" s="13">
-        <f>SUM(E29:K29)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="17">
-        <f>SUM(E25:E29)</f>
+      <c r="K29" s="12">
+        <f>SUM(D29:J29)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14">
+        <f>SUM(D25:D29)</f>
         <v>2293</v>
       </c>
-      <c r="F30" s="17">
-        <f t="shared" ref="F30" si="3">SUM(F25:F29)</f>
+      <c r="E30" s="14">
+        <f t="shared" ref="E30" si="3">SUM(E25:E29)</f>
         <v>2498</v>
       </c>
-      <c r="G30" s="17">
-        <f t="shared" ref="G30" si="4">SUM(G25:G29)</f>
+      <c r="F30" s="14">
+        <f t="shared" ref="F30" si="4">SUM(F25:F29)</f>
         <v>1844</v>
       </c>
-      <c r="H30" s="17">
-        <f t="shared" ref="H30" si="5">SUM(H25:H29)</f>
+      <c r="G30" s="14">
+        <f t="shared" ref="G30" si="5">SUM(G25:G29)</f>
         <v>1887</v>
       </c>
-      <c r="I30" s="17">
-        <f t="shared" ref="I30" si="6">SUM(I25:I29)</f>
+      <c r="H30" s="14">
+        <f t="shared" ref="H30" si="6">SUM(H25:H29)</f>
         <v>1234</v>
       </c>
-      <c r="J30" s="17">
-        <f t="shared" ref="J30" si="7">SUM(J25:J29)</f>
+      <c r="I30" s="14">
+        <f t="shared" ref="I30" si="7">SUM(I25:I29)</f>
         <v>2331</v>
       </c>
-      <c r="K30" s="17">
-        <f t="shared" ref="K30" si="8">SUM(K25:K29)</f>
+      <c r="J30" s="14">
+        <f t="shared" ref="J30" si="8">SUM(J25:J29)</f>
         <v>2008</v>
       </c>
-      <c r="L30" s="17">
-        <f t="shared" ref="L30" si="9">SUM(L25:L29)</f>
+      <c r="K30" s="14">
+        <f t="shared" ref="K30" si="9">SUM(K25:K29)</f>
         <v>14095</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L31" s="27">
-        <f>SUM(E30:K30)-L30</f>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="18">
+        <f>SUM(D30:J30)-K30</f>
         <v>0</v>
       </c>
     </row>
